--- a/xlsx/country_comparison/split_main_nb0.xlsx
+++ b/xlsx/country_comparison/split_main_nb0.xlsx
@@ -440,10 +440,10 @@
         <v>13.3195461056723</v>
       </c>
       <c r="C2" t="n">
-        <v>12.4305816524531</v>
+        <v>12.3964691595536</v>
       </c>
       <c r="D2" t="n">
-        <v>14.2085105588915</v>
+        <v>14.242623051791</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -457,10 +457,10 @@
         <v>11.7887041526832</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4984443494398</v>
+        <v>10.4489328327338</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0789639559265</v>
+        <v>13.1284754726326</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -474,10 +474,10 @@
         <v>15.857255790265</v>
       </c>
       <c r="C4" t="n">
-        <v>12.451888261416</v>
+        <v>12.3212130974908</v>
       </c>
       <c r="D4" t="n">
-        <v>19.2626233191139</v>
+        <v>19.3932984830391</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -491,10 +491,10 @@
         <v>12.1785702567457</v>
       </c>
       <c r="C5" t="n">
-        <v>9.41608981883616</v>
+        <v>9.3100843492339</v>
       </c>
       <c r="D5" t="n">
-        <v>14.9410506946553</v>
+        <v>15.0470561642576</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -508,10 +508,10 @@
         <v>10.1829248810549</v>
       </c>
       <c r="C6" t="n">
-        <v>7.067888216319</v>
+        <v>6.94835400353613</v>
       </c>
       <c r="D6" t="n">
-        <v>13.2979615457908</v>
+        <v>13.4174957585737</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -525,10 +525,10 @@
         <v>8.17000717202772</v>
       </c>
       <c r="C7" t="n">
-        <v>4.77156177708181</v>
+        <v>4.64115223822495</v>
       </c>
       <c r="D7" t="n">
-        <v>11.5684525669736</v>
+        <v>11.6988621058305</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -542,10 +542,10 @@
         <v>8.79892939774599</v>
       </c>
       <c r="C8" t="n">
-        <v>5.6926338448441</v>
+        <v>5.57343505730157</v>
       </c>
       <c r="D8" t="n">
-        <v>11.9052249506479</v>
+        <v>12.0244237381904</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -559,10 +559,10 @@
         <v>12.2130961198949</v>
       </c>
       <c r="C9" t="n">
-        <v>9.08696392163038</v>
+        <v>8.96700393669505</v>
       </c>
       <c r="D9" t="n">
-        <v>15.3392283181595</v>
+        <v>15.4591883030948</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -576,10 +576,10 @@
         <v>15.9499241514169</v>
       </c>
       <c r="C10" t="n">
-        <v>6.77665626985468</v>
+        <v>6.42464777914183</v>
       </c>
       <c r="D10" t="n">
-        <v>25.1231920329791</v>
+        <v>25.4752005236919</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -593,10 +593,10 @@
         <v>16.9847960834798</v>
       </c>
       <c r="C11" t="n">
-        <v>14.4519782781554</v>
+        <v>14.3547857199074</v>
       </c>
       <c r="D11" t="n">
-        <v>19.5176138888042</v>
+        <v>19.6148064470522</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -607,13 +607,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>2.59148705771949</v>
+        <v>2.59148705771948</v>
       </c>
       <c r="C12" t="n">
-        <v>0.340805513047639</v>
+        <v>0.254439452027268</v>
       </c>
       <c r="D12" t="n">
-        <v>4.84216860239133</v>
+        <v>4.9285346634117</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -627,10 +627,10 @@
         <v>14.5305390017983</v>
       </c>
       <c r="C13" t="n">
-        <v>13.0492994598765</v>
+        <v>12.992459421815</v>
       </c>
       <c r="D13" t="n">
-        <v>16.0117785437202</v>
+        <v>16.0686185817816</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -644,10 +644,10 @@
         <v>5.28146607645593</v>
       </c>
       <c r="C14" t="n">
-        <v>4.69630716261108</v>
+        <v>4.67385268850772</v>
       </c>
       <c r="D14" t="n">
-        <v>5.86662499030079</v>
+        <v>5.88907946440415</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -661,10 +661,10 @@
         <v>3.4352800977907</v>
       </c>
       <c r="C15" t="n">
-        <v>2.70654052909181</v>
+        <v>2.67857639253629</v>
       </c>
       <c r="D15" t="n">
-        <v>4.16401966648959</v>
+        <v>4.19198380304512</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -678,10 +678,10 @@
         <v>4.73954546582556</v>
       </c>
       <c r="C16" t="n">
-        <v>2.7586283231659</v>
+        <v>2.68261401042394</v>
       </c>
       <c r="D16" t="n">
-        <v>6.72046260848521</v>
+        <v>6.79647692122717</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -695,10 +695,10 @@
         <v>3.26599692710462</v>
       </c>
       <c r="C17" t="n">
-        <v>1.76459049250379</v>
+        <v>1.70697658437268</v>
       </c>
       <c r="D17" t="n">
-        <v>4.76740336170546</v>
+        <v>4.82501726983657</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -712,10 +712,10 @@
         <v>3.38714949751683</v>
       </c>
       <c r="C18" t="n">
-        <v>1.52385256372104</v>
+        <v>1.45235172564635</v>
       </c>
       <c r="D18" t="n">
-        <v>5.25044643131262</v>
+        <v>5.32194726938731</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -729,10 +729,10 @@
         <v>2.99136318994881</v>
       </c>
       <c r="C19" t="n">
-        <v>0.877793483505466</v>
+        <v>0.796688855145389</v>
       </c>
       <c r="D19" t="n">
-        <v>5.10493289639215</v>
+        <v>5.18603752475223</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -746,10 +746,10 @@
         <v>2.46823781641377</v>
       </c>
       <c r="C20" t="n">
-        <v>0.766884834179943</v>
+        <v>0.701598318711482</v>
       </c>
       <c r="D20" t="n">
-        <v>4.16959079864759</v>
+        <v>4.23487731411605</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -763,10 +763,10 @@
         <v>3.05182836669389</v>
       </c>
       <c r="C21" t="n">
-        <v>1.40961550150657</v>
+        <v>1.3465983870423</v>
       </c>
       <c r="D21" t="n">
-        <v>4.69404123188122</v>
+        <v>4.75705834634549</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -780,10 +780,10 @@
         <v>5.29211302278441</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.316859844971579</v>
+        <v>-0.532094600908075</v>
       </c>
       <c r="D22" t="n">
-        <v>10.9010858905404</v>
+        <v>11.1163206464769</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -797,10 +797,10 @@
         <v>5.32391696804548</v>
       </c>
       <c r="C23" t="n">
-        <v>3.80955135253593</v>
+        <v>3.7514401579665</v>
       </c>
       <c r="D23" t="n">
-        <v>6.83828258355504</v>
+        <v>6.89639377812447</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -814,10 +814,10 @@
         <v>2.59887226014869</v>
       </c>
       <c r="C24" t="n">
-        <v>0.345071451307286</v>
+        <v>0.258585693850854</v>
       </c>
       <c r="D24" t="n">
-        <v>4.85267306899009</v>
+        <v>4.93915882644652</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -831,10 +831,10 @@
         <v>7.53832692899417</v>
       </c>
       <c r="C25" t="n">
-        <v>6.42864807482172</v>
+        <v>6.38606604367681</v>
       </c>
       <c r="D25" t="n">
-        <v>8.64800578316662</v>
+        <v>8.69058781431152</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -848,10 +848,10 @@
         <v>17.6427093794712</v>
       </c>
       <c r="C26" t="n">
-        <v>16.6249186235947</v>
+        <v>16.5858626413141</v>
       </c>
       <c r="D26" t="n">
-        <v>18.6605001353478</v>
+        <v>18.6995561176284</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -865,10 +865,10 @@
         <v>15.4436439163565</v>
       </c>
       <c r="C27" t="n">
-        <v>13.9922993635946</v>
+        <v>13.9366064946936</v>
       </c>
       <c r="D27" t="n">
-        <v>16.8949884691183</v>
+        <v>16.9506813380193</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -882,10 +882,10 @@
         <v>15.7002231767915</v>
       </c>
       <c r="C28" t="n">
-        <v>12.1573281266778</v>
+        <v>12.0213755789657</v>
       </c>
       <c r="D28" t="n">
-        <v>19.2431182269051</v>
+        <v>19.3790707746173</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -899,10 +899,10 @@
         <v>14.3639215124825</v>
       </c>
       <c r="C29" t="n">
-        <v>11.4070933641765</v>
+        <v>11.2936301330553</v>
       </c>
       <c r="D29" t="n">
-        <v>17.3207496607884</v>
+        <v>17.4342128919096</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
@@ -916,10 +916,10 @@
         <v>14.0819346615375</v>
       </c>
       <c r="C30" t="n">
-        <v>10.732740175365</v>
+        <v>10.6042205560316</v>
       </c>
       <c r="D30" t="n">
-        <v>17.43112914771</v>
+        <v>17.5596487670433</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
@@ -933,10 +933,10 @@
         <v>15.6673643026802</v>
       </c>
       <c r="C31" t="n">
-        <v>11.0842455881749</v>
+        <v>10.9083762336243</v>
       </c>
       <c r="D31" t="n">
-        <v>20.2504830171854</v>
+        <v>20.4263523717361</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
@@ -950,10 +950,10 @@
         <v>13.0173032800483</v>
       </c>
       <c r="C32" t="n">
-        <v>9.21716941028976</v>
+        <v>9.07134576213389</v>
       </c>
       <c r="D32" t="n">
-        <v>16.8174371498068</v>
+        <v>16.9632607979627</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -967,10 +967,10 @@
         <v>19.3721815296871</v>
       </c>
       <c r="C33" t="n">
-        <v>15.6004250069087</v>
+        <v>15.4556902909861</v>
       </c>
       <c r="D33" t="n">
-        <v>23.1439380524654</v>
+        <v>23.288672768388</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
@@ -984,10 +984,10 @@
         <v>16.683472112902</v>
       </c>
       <c r="C34" t="n">
-        <v>6.50808069126399</v>
+        <v>6.11761742092359</v>
       </c>
       <c r="D34" t="n">
-        <v>26.8588635345401</v>
+        <v>27.2493268048805</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
@@ -1001,10 +1001,10 @@
         <v>21.0305607503822</v>
       </c>
       <c r="C35" t="n">
-        <v>18.2287326042074</v>
+        <v>18.1212172334905</v>
       </c>
       <c r="D35" t="n">
-        <v>23.832388896557</v>
+        <v>23.9399042672739</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -1018,10 +1018,10 @@
         <v>8.13022396178498</v>
       </c>
       <c r="C36" t="n">
-        <v>4.11763327501241</v>
+        <v>3.96365695929418</v>
       </c>
       <c r="D36" t="n">
-        <v>12.1428146485575</v>
+        <v>12.2967909642758</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -1035,10 +1035,10 @@
         <v>19.7183505109375</v>
       </c>
       <c r="C37" t="n">
-        <v>17.9803958795765</v>
+        <v>17.9137048383237</v>
       </c>
       <c r="D37" t="n">
-        <v>21.4563051422984</v>
+        <v>21.5229961835513</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -1052,10 +1052,10 @@
         <v>13.180440679799</v>
       </c>
       <c r="C38" t="n">
-        <v>11.740086973926</v>
+        <v>11.6848158600064</v>
       </c>
       <c r="D38" t="n">
-        <v>14.6207943856719</v>
+        <v>14.6760654995915</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1069,10 +1069,10 @@
         <v>9.90885343858005</v>
       </c>
       <c r="C39" t="n">
-        <v>7.97853788215832</v>
+        <v>7.90446531888114</v>
       </c>
       <c r="D39" t="n">
-        <v>11.8391689950018</v>
+        <v>11.913241558279</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1086,10 +1086,10 @@
         <v>11.6841997226376</v>
       </c>
       <c r="C40" t="n">
-        <v>6.56260723541983</v>
+        <v>6.36607486933736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.8057922098553</v>
+        <v>17.0023245759378</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1103,10 +1103,10 @@
         <v>9.74985481675568</v>
       </c>
       <c r="C41" t="n">
-        <v>5.72227409209049</v>
+        <v>5.56772255926507</v>
       </c>
       <c r="D41" t="n">
-        <v>13.7774355414209</v>
+        <v>13.9319870742463</v>
       </c>
       <c r="E41" t="s">
         <v>20</v>
@@ -1120,10 +1120,10 @@
         <v>3.93874094509974</v>
       </c>
       <c r="C42" t="n">
-        <v>0.891965990431545</v>
+        <v>0.775051204209055</v>
       </c>
       <c r="D42" t="n">
-        <v>6.98551589976794</v>
+        <v>7.10243068599043</v>
       </c>
       <c r="E42" t="s">
         <v>20</v>
@@ -1137,10 +1137,10 @@
         <v>10.9394437728559</v>
       </c>
       <c r="C43" t="n">
-        <v>4.75762888213068</v>
+        <v>4.52041229174589</v>
       </c>
       <c r="D43" t="n">
-        <v>17.1212586635811</v>
+        <v>17.3584752539658</v>
       </c>
       <c r="E43" t="s">
         <v>20</v>
@@ -1154,10 +1154,10 @@
         <v>7.13885917566529</v>
       </c>
       <c r="C44" t="n">
-        <v>2.54814703941034</v>
+        <v>2.37198630026651</v>
       </c>
       <c r="D44" t="n">
-        <v>11.7295713119202</v>
+        <v>11.9057320510641</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
@@ -1171,10 +1171,10 @@
         <v>15.5858339844804</v>
       </c>
       <c r="C45" t="n">
-        <v>10.0003865969261</v>
+        <v>9.78605459112035</v>
       </c>
       <c r="D45" t="n">
-        <v>21.1712813720346</v>
+        <v>21.3856133778404</v>
       </c>
       <c r="E45" t="s">
         <v>20</v>
@@ -1188,10 +1188,10 @@
         <v>10.691829733176</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.57287645652128</v>
+        <v>-4.12026019818549</v>
       </c>
       <c r="D46" t="n">
-        <v>24.9565359228732</v>
+        <v>25.5039196645374</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -1205,10 +1205,10 @@
         <v>21.0612328683651</v>
       </c>
       <c r="C47" t="n">
-        <v>16.6620869010283</v>
+        <v>16.4932771864989</v>
       </c>
       <c r="D47" t="n">
-        <v>25.460378835702</v>
+        <v>25.6291885502313</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
@@ -1222,10 +1222,10 @@
         <v>1.67275809272893</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.3692234915747</v>
+        <v>-1.48595434039459</v>
       </c>
       <c r="D48" t="n">
-        <v>4.71473967703256</v>
+        <v>4.83147052585245</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -1239,10 +1239,10 @@
         <v>14.6777749944208</v>
       </c>
       <c r="C49" t="n">
-        <v>12.2220067864516</v>
+        <v>12.1277708749325</v>
       </c>
       <c r="D49" t="n">
-        <v>17.13354320239</v>
+        <v>17.2277791139091</v>
       </c>
       <c r="E49" t="s">
         <v>20</v>
@@ -1256,10 +1256,10 @@
         <v>11.2583271364775</v>
       </c>
       <c r="C50" t="n">
-        <v>9.89204277340679</v>
+        <v>9.83961394403664</v>
       </c>
       <c r="D50" t="n">
-        <v>12.6246114995482</v>
+        <v>12.6770403289184</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1273,10 +1273,10 @@
         <v>8.76093986725863</v>
       </c>
       <c r="C51" t="n">
-        <v>6.92482133096231</v>
+        <v>6.85436341748192</v>
       </c>
       <c r="D51" t="n">
-        <v>10.597058403555</v>
+        <v>10.6675163170353</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1290,10 +1290,10 @@
         <v>9.24993280623377</v>
       </c>
       <c r="C52" t="n">
-        <v>4.74680955866179</v>
+        <v>4.57400989355467</v>
       </c>
       <c r="D52" t="n">
-        <v>13.7530560538057</v>
+        <v>13.9258557189129</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1307,10 +1307,10 @@
         <v>7.86488202532622</v>
       </c>
       <c r="C53" t="n">
-        <v>4.32718593203372</v>
+        <v>4.19143288541184</v>
       </c>
       <c r="D53" t="n">
-        <v>11.4025781186187</v>
+        <v>11.5383311652406</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1324,10 +1324,10 @@
         <v>8.55775014384478</v>
       </c>
       <c r="C54" t="n">
-        <v>4.14193672942995</v>
+        <v>3.97248743008026</v>
       </c>
       <c r="D54" t="n">
-        <v>12.9735635582596</v>
+        <v>13.1430128576093</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -1341,10 +1341,10 @@
         <v>8.50072620113385</v>
       </c>
       <c r="C55" t="n">
-        <v>2.83362673124633</v>
+        <v>2.61616146620983</v>
       </c>
       <c r="D55" t="n">
-        <v>14.1678256710214</v>
+        <v>14.3852909360579</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -1358,10 +1358,10 @@
         <v>5.60191660155518</v>
       </c>
       <c r="C56" t="n">
-        <v>1.08493162452087</v>
+        <v>0.911600039215881</v>
       </c>
       <c r="D56" t="n">
-        <v>10.1189015785895</v>
+        <v>10.2922331638945</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -1375,10 +1375,10 @@
         <v>11.0397520571469</v>
       </c>
       <c r="C57" t="n">
-        <v>6.12418584781807</v>
+        <v>5.93555938833978</v>
       </c>
       <c r="D57" t="n">
-        <v>15.9553182664758</v>
+        <v>16.1439447259541</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -1392,10 +1392,10 @@
         <v>15.2448949514248</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.137689605663707</v>
+        <v>-0.727970020791135</v>
       </c>
       <c r="D58" t="n">
-        <v>30.6274795085134</v>
+        <v>31.2177599236408</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -1409,10 +1409,10 @@
         <v>14.8662610927932</v>
       </c>
       <c r="C59" t="n">
-        <v>11.0261643173463</v>
+        <v>10.8788071609251</v>
       </c>
       <c r="D59" t="n">
-        <v>18.7063578682402</v>
+        <v>18.8537150246613</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -1423,13 +1423,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>3.73796249676128</v>
+        <v>3.73796249676129</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.891466000952329</v>
+        <v>-1.0691124143552</v>
       </c>
       <c r="D60" t="n">
-        <v>8.3673909944749</v>
+        <v>8.54503740787777</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>13.3554697177631</v>
       </c>
       <c r="C61" t="n">
-        <v>10.9183335633539</v>
+        <v>10.8248126250742</v>
       </c>
       <c r="D61" t="n">
-        <v>15.7926058721722</v>
+        <v>15.886126810452</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
@@ -1460,10 +1460,10 @@
         <v>10.3833360601767</v>
       </c>
       <c r="C62" t="n">
-        <v>9.05572891501777</v>
+        <v>9.0047842578399</v>
       </c>
       <c r="D62" t="n">
-        <v>11.7109432053356</v>
+        <v>11.7618878625135</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1477,10 +1477,10 @@
         <v>8.86487499642793</v>
       </c>
       <c r="C63" t="n">
-        <v>7.02042610700054</v>
+        <v>6.94964853044363</v>
       </c>
       <c r="D63" t="n">
-        <v>10.7093238858553</v>
+        <v>10.7801014624122</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1494,10 +1494,10 @@
         <v>14.3091169462131</v>
       </c>
       <c r="C64" t="n">
-        <v>8.98616097591825</v>
+        <v>8.78190163002031</v>
       </c>
       <c r="D64" t="n">
-        <v>19.632072916508</v>
+        <v>19.836332262406</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1511,10 +1511,10 @@
         <v>9.38872415268184</v>
       </c>
       <c r="C65" t="n">
-        <v>5.35800816435703</v>
+        <v>5.20333632114245</v>
       </c>
       <c r="D65" t="n">
-        <v>13.4194401410066</v>
+        <v>13.5741119842212</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -1528,10 +1528,10 @@
         <v>2.02182967088822</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.116009510007582</v>
+        <v>-0.198045438007297</v>
       </c>
       <c r="D66" t="n">
-        <v>4.15966885178402</v>
+        <v>4.24170477978374</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1545,10 +1545,10 @@
         <v>6.57996151211856</v>
       </c>
       <c r="C67" t="n">
-        <v>1.71758925724564</v>
+        <v>1.53100402493577</v>
       </c>
       <c r="D67" t="n">
-        <v>11.4423337669915</v>
+        <v>11.6289189993013</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -1562,10 +1562,10 @@
         <v>3.21014910982196</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.0725995156641103</v>
+        <v>-0.198569388556372</v>
       </c>
       <c r="D68" t="n">
-        <v>6.49289773530803</v>
+        <v>6.61886760820029</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -1579,10 +1579,10 @@
         <v>15.2935563353551</v>
       </c>
       <c r="C69" t="n">
-        <v>9.35805127500362</v>
+        <v>9.13028640376156</v>
       </c>
       <c r="D69" t="n">
-        <v>21.2290613957066</v>
+        <v>21.4568262669486</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -1596,10 +1596,10 @@
         <v>12.5329561034987</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.62136230428233</v>
+        <v>-2.16451010331332</v>
       </c>
       <c r="D70" t="n">
-        <v>26.6872745112798</v>
+        <v>27.2304223103107</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -1613,10 +1613,10 @@
         <v>13.6653991065051</v>
       </c>
       <c r="C71" t="n">
-        <v>9.62336533695297</v>
+        <v>9.46825919320998</v>
       </c>
       <c r="D71" t="n">
-        <v>17.7074328760573</v>
+        <v>17.8625390198003</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -1630,10 +1630,10 @@
         <v>1.45643548657437</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.22563295128046</v>
+        <v>-1.32855274769188</v>
       </c>
       <c r="D72" t="n">
-        <v>4.13850392442919</v>
+        <v>4.24142372084062</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -1647,10 +1647,10 @@
         <v>11.9099240476882</v>
       </c>
       <c r="C73" t="n">
-        <v>9.60588298452592</v>
+        <v>9.51746934310002</v>
       </c>
       <c r="D73" t="n">
-        <v>14.2139651108504</v>
+        <v>14.3023787522763</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -1664,10 +1664,10 @@
         <v>11.49305996547</v>
       </c>
       <c r="C74" t="n">
-        <v>10.126486948783</v>
+        <v>10.0740470428232</v>
       </c>
       <c r="D74" t="n">
-        <v>12.859632982157</v>
+        <v>12.9120728881168</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
@@ -1681,10 +1681,10 @@
         <v>8.79406017112818</v>
       </c>
       <c r="C75" t="n">
-        <v>6.9935494187611</v>
+        <v>6.92445789318526</v>
       </c>
       <c r="D75" t="n">
-        <v>10.5945709234953</v>
+        <v>10.6636624490711</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
@@ -1698,10 +1698,10 @@
         <v>10.2675601230878</v>
       </c>
       <c r="C76" t="n">
-        <v>5.6466769513125</v>
+        <v>5.46935845020055</v>
       </c>
       <c r="D76" t="n">
-        <v>14.8884432948631</v>
+        <v>15.0657617959751</v>
       </c>
       <c r="E76" t="s">
         <v>23</v>
@@ -1715,10 +1715,10 @@
         <v>7.00292480962934</v>
       </c>
       <c r="C77" t="n">
-        <v>3.68166914774238</v>
+        <v>3.55422163308273</v>
       </c>
       <c r="D77" t="n">
-        <v>10.3241804715163</v>
+        <v>10.451627986176</v>
       </c>
       <c r="E77" t="s">
         <v>23</v>
@@ -1732,10 +1732,10 @@
         <v>3.4168788628126</v>
       </c>
       <c r="C78" t="n">
-        <v>0.388985799805091</v>
+        <v>0.272795573932424</v>
       </c>
       <c r="D78" t="n">
-        <v>6.44477192582011</v>
+        <v>6.56096215169277</v>
       </c>
       <c r="E78" t="s">
         <v>23</v>
@@ -1749,10 +1749,10 @@
         <v>8.43563925338355</v>
       </c>
       <c r="C79" t="n">
-        <v>2.66857073463788</v>
+        <v>2.44726932805827</v>
       </c>
       <c r="D79" t="n">
-        <v>14.2027077721292</v>
+        <v>14.4240091787088</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>
@@ -1766,10 +1766,10 @@
         <v>11.7998587388894</v>
       </c>
       <c r="C80" t="n">
-        <v>6.09244424616557</v>
+        <v>5.87343196096952</v>
       </c>
       <c r="D80" t="n">
-        <v>17.5072732316133</v>
+        <v>17.7262855168093</v>
       </c>
       <c r="E80" t="s">
         <v>23</v>
@@ -1783,10 +1783,10 @@
         <v>11.4667583470134</v>
       </c>
       <c r="C81" t="n">
-        <v>6.83448882227364</v>
+        <v>6.65673338930997</v>
       </c>
       <c r="D81" t="n">
-        <v>16.0990278717531</v>
+        <v>16.2767833047167</v>
       </c>
       <c r="E81" t="s">
         <v>23</v>
@@ -1800,10 +1800,10 @@
         <v>12.8195616790557</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.68158905229566</v>
+        <v>-2.23804594949393</v>
       </c>
       <c r="D82" t="n">
-        <v>27.320712410407</v>
+        <v>27.8771693076053</v>
       </c>
       <c r="E82" t="s">
         <v>23</v>
@@ -1817,10 +1817,10 @@
         <v>15.6807715131403</v>
       </c>
       <c r="C83" t="n">
-        <v>11.5446100510345</v>
+        <v>11.3858919178219</v>
       </c>
       <c r="D83" t="n">
-        <v>19.8169329752462</v>
+        <v>19.9756511084588</v>
       </c>
       <c r="E83" t="s">
         <v>23</v>
@@ -1834,10 +1834,10 @@
         <v>4.51972940889372</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.389425195841699</v>
+        <v>-0.577805620942146</v>
       </c>
       <c r="D84" t="n">
-        <v>9.42888401362914</v>
+        <v>9.61726443872959</v>
       </c>
       <c r="E84" t="s">
         <v>23</v>
@@ -1851,10 +1851,10 @@
         <v>13.8195272995363</v>
       </c>
       <c r="C85" t="n">
-        <v>11.3878753295201</v>
+        <v>11.2945648374516</v>
       </c>
       <c r="D85" t="n">
-        <v>16.2511792695524</v>
+        <v>16.3444897616209</v>
       </c>
       <c r="E85" t="s">
         <v>23</v>

--- a/xlsx/country_comparison/split_main_nb0.xlsx
+++ b/xlsx/country_comparison/split_main_nb0.xlsx
@@ -437,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>13.3195461056723</v>
+        <v>13.3193623891079</v>
       </c>
       <c r="C2" t="n">
-        <v>12.3964691595536</v>
+        <v>12.4024333816592</v>
       </c>
       <c r="D2" t="n">
-        <v>14.242623051791</v>
+        <v>14.2362913965566</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -457,10 +457,10 @@
         <v>11.7887041526832</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4489328327338</v>
+        <v>10.4568787545218</v>
       </c>
       <c r="D3" t="n">
-        <v>13.1284754726326</v>
+        <v>13.1205295508446</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -474,10 +474,10 @@
         <v>15.857255790265</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3212130974908</v>
+        <v>12.3421846754442</v>
       </c>
       <c r="D4" t="n">
-        <v>19.3932984830391</v>
+        <v>19.3723269050858</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -491,10 +491,10 @@
         <v>12.1785702567457</v>
       </c>
       <c r="C5" t="n">
-        <v>9.3100843492339</v>
+        <v>9.32709677839388</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0470561642576</v>
+        <v>15.0300437350976</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -508,10 +508,10 @@
         <v>10.1829248810549</v>
       </c>
       <c r="C6" t="n">
-        <v>6.94835400353613</v>
+        <v>6.96753761108763</v>
       </c>
       <c r="D6" t="n">
-        <v>13.4174957585737</v>
+        <v>13.3983121510222</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -525,10 +525,10 @@
         <v>8.17000717202772</v>
       </c>
       <c r="C7" t="n">
-        <v>4.64115223822495</v>
+        <v>4.66208118698497</v>
       </c>
       <c r="D7" t="n">
-        <v>11.6988621058305</v>
+        <v>11.6779331570705</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -542,10 +542,10 @@
         <v>8.79892939774599</v>
       </c>
       <c r="C8" t="n">
-        <v>5.57343505730157</v>
+        <v>5.59256483368605</v>
       </c>
       <c r="D8" t="n">
-        <v>12.0244237381904</v>
+        <v>12.0052939618059</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -559,10 +559,10 @@
         <v>12.2130961198949</v>
       </c>
       <c r="C9" t="n">
-        <v>8.96700393669505</v>
+        <v>8.98625587485825</v>
       </c>
       <c r="D9" t="n">
-        <v>15.4591883030948</v>
+        <v>15.4399363649316</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -576,10 +576,10 @@
         <v>15.9499241514169</v>
       </c>
       <c r="C10" t="n">
-        <v>6.42464777914183</v>
+        <v>6.48114033121892</v>
       </c>
       <c r="D10" t="n">
-        <v>25.4752005236919</v>
+        <v>25.4187079716149</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -590,13 +590,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9847960834798</v>
+        <v>16.9764659249636</v>
       </c>
       <c r="C11" t="n">
-        <v>14.3547857199074</v>
+        <v>14.3625021905328</v>
       </c>
       <c r="D11" t="n">
-        <v>19.6148064470522</v>
+        <v>19.5904296593944</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -607,13 +607,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>2.59148705771948</v>
+        <v>2.59148705771949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.254439452027268</v>
+        <v>0.268300024509501</v>
       </c>
       <c r="D12" t="n">
-        <v>4.9285346634117</v>
+        <v>4.91467409092947</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -624,13 +624,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5305390017983</v>
+        <v>14.5287976377778</v>
       </c>
       <c r="C13" t="n">
-        <v>12.992459421815</v>
+        <v>13.0027964933064</v>
       </c>
       <c r="D13" t="n">
-        <v>16.0686185817816</v>
+        <v>16.0547987822492</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -641,13 +641,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>5.28146607645593</v>
+        <v>5.28551547481145</v>
       </c>
       <c r="C14" t="n">
-        <v>4.67385268850772</v>
+        <v>4.68172699828632</v>
       </c>
       <c r="D14" t="n">
-        <v>5.88907946440415</v>
+        <v>5.88930395133658</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -661,10 +661,10 @@
         <v>3.4352800977907</v>
       </c>
       <c r="C15" t="n">
-        <v>2.67857639253629</v>
+        <v>2.68306425428489</v>
       </c>
       <c r="D15" t="n">
-        <v>4.19198380304512</v>
+        <v>4.18749594129651</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -678,10 +678,10 @@
         <v>4.73954546582556</v>
       </c>
       <c r="C16" t="n">
-        <v>2.68261401042394</v>
+        <v>2.69481326877843</v>
       </c>
       <c r="D16" t="n">
-        <v>6.79647692122717</v>
+        <v>6.78427766287268</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -695,10 +695,10 @@
         <v>3.26599692710462</v>
       </c>
       <c r="C17" t="n">
-        <v>1.70697658437268</v>
+        <v>1.71622282925407</v>
       </c>
       <c r="D17" t="n">
-        <v>4.82501726983657</v>
+        <v>4.81577102495517</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -712,10 +712,10 @@
         <v>3.38714949751683</v>
       </c>
       <c r="C18" t="n">
-        <v>1.45235172564635</v>
+        <v>1.46382663299961</v>
       </c>
       <c r="D18" t="n">
-        <v>5.32194726938731</v>
+        <v>5.31047236203405</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -729,10 +729,10 @@
         <v>2.99136318994881</v>
       </c>
       <c r="C19" t="n">
-        <v>0.796688855145389</v>
+        <v>0.809705039590391</v>
       </c>
       <c r="D19" t="n">
-        <v>5.18603752475223</v>
+        <v>5.17302134030723</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -746,10 +746,10 @@
         <v>2.46823781641377</v>
       </c>
       <c r="C20" t="n">
-        <v>0.701598318711482</v>
+        <v>0.712075912213744</v>
       </c>
       <c r="D20" t="n">
-        <v>4.23487731411605</v>
+        <v>4.22439972061379</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -763,10 +763,10 @@
         <v>3.05182836669389</v>
       </c>
       <c r="C21" t="n">
-        <v>1.3465983870423</v>
+        <v>1.35671177269789</v>
       </c>
       <c r="D21" t="n">
-        <v>4.75705834634549</v>
+        <v>4.7469449606899</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -780,10 +780,10 @@
         <v>5.29211302278441</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.532094600908075</v>
+        <v>-0.497552364060549</v>
       </c>
       <c r="D22" t="n">
-        <v>11.1163206464769</v>
+        <v>11.0817784096294</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -794,13 +794,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>5.32391696804548</v>
+        <v>5.31794627982536</v>
       </c>
       <c r="C23" t="n">
-        <v>3.7514401579665</v>
+        <v>3.75558626865022</v>
       </c>
       <c r="D23" t="n">
-        <v>6.89639377812447</v>
+        <v>6.88030629100049</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -814,10 +814,10 @@
         <v>2.59887226014869</v>
       </c>
       <c r="C24" t="n">
-        <v>0.258585693850854</v>
+        <v>0.272465475975257</v>
       </c>
       <c r="D24" t="n">
-        <v>4.93915882644652</v>
+        <v>4.92527904432211</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -828,13 +828,13 @@
         <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>7.53832692899417</v>
+        <v>7.54256520205381</v>
       </c>
       <c r="C25" t="n">
-        <v>6.38606604367681</v>
+        <v>6.39900094752147</v>
       </c>
       <c r="D25" t="n">
-        <v>8.69058781431152</v>
+        <v>8.68612945658616</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -845,13 +845,13 @@
         <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>17.6427093794712</v>
+        <v>17.6477970206699</v>
       </c>
       <c r="C26" t="n">
-        <v>16.5858626413141</v>
+        <v>16.5979346389398</v>
       </c>
       <c r="D26" t="n">
-        <v>18.6995561176284</v>
+        <v>18.6976594023999</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -865,10 +865,10 @@
         <v>15.4436439163565</v>
       </c>
       <c r="C27" t="n">
-        <v>13.9366064946936</v>
+        <v>13.9455444390322</v>
       </c>
       <c r="D27" t="n">
-        <v>16.9506813380193</v>
+        <v>16.9417433936807</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -882,10 +882,10 @@
         <v>15.7002231767915</v>
       </c>
       <c r="C28" t="n">
-        <v>12.0213755789657</v>
+        <v>12.0431941048941</v>
       </c>
       <c r="D28" t="n">
-        <v>19.3790707746173</v>
+        <v>19.3572522486888</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -899,10 +899,10 @@
         <v>14.3639215124825</v>
       </c>
       <c r="C29" t="n">
-        <v>11.2936301330553</v>
+        <v>11.3118394310184</v>
       </c>
       <c r="D29" t="n">
-        <v>17.4342128919096</v>
+        <v>17.4160035939465</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
@@ -916,10 +916,10 @@
         <v>14.0819346615375</v>
       </c>
       <c r="C30" t="n">
-        <v>10.6042205560316</v>
+        <v>10.6248461985365</v>
       </c>
       <c r="D30" t="n">
-        <v>17.5596487670433</v>
+        <v>17.5390231245385</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
@@ -933,10 +933,10 @@
         <v>15.6673643026802</v>
       </c>
       <c r="C31" t="n">
-        <v>10.9083762336243</v>
+        <v>10.936600861532</v>
       </c>
       <c r="D31" t="n">
-        <v>20.4263523717361</v>
+        <v>20.3981277438284</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
@@ -950,10 +950,10 @@
         <v>13.0173032800483</v>
       </c>
       <c r="C32" t="n">
-        <v>9.07134576213389</v>
+        <v>9.0947484647813</v>
       </c>
       <c r="D32" t="n">
-        <v>16.9632607979627</v>
+        <v>16.9398580953153</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -967,10 +967,10 @@
         <v>19.3721815296871</v>
       </c>
       <c r="C33" t="n">
-        <v>15.4556902909861</v>
+        <v>15.4789182348919</v>
       </c>
       <c r="D33" t="n">
-        <v>23.288672768388</v>
+        <v>23.2654448244822</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
@@ -984,10 +984,10 @@
         <v>16.683472112902</v>
       </c>
       <c r="C34" t="n">
-        <v>6.11761742092359</v>
+        <v>6.18028143959322</v>
       </c>
       <c r="D34" t="n">
-        <v>27.2493268048805</v>
+        <v>27.1866627862109</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
@@ -998,13 +998,13 @@
         <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>21.0305607503822</v>
+        <v>21.021707247996</v>
       </c>
       <c r="C35" t="n">
-        <v>18.1212172334905</v>
+        <v>18.1301359041404</v>
       </c>
       <c r="D35" t="n">
-        <v>23.9399042672739</v>
+        <v>23.9132785918517</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -1015,13 +1015,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>8.13022396178498</v>
+        <v>8.13022396178497</v>
       </c>
       <c r="C36" t="n">
-        <v>3.96365695929418</v>
+        <v>3.98836805366789</v>
       </c>
       <c r="D36" t="n">
-        <v>12.2967909642758</v>
+        <v>12.2720798699021</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -1032,13 +1032,13 @@
         <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>19.7183505109375</v>
+        <v>19.7266556784379</v>
       </c>
       <c r="C37" t="n">
-        <v>17.9137048383237</v>
+        <v>17.9362189940129</v>
       </c>
       <c r="D37" t="n">
-        <v>21.5229961835513</v>
+        <v>21.5170923628629</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -1049,13 +1049,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>13.180440679799</v>
+        <v>13.1792237295119</v>
       </c>
       <c r="C38" t="n">
-        <v>11.6848158600064</v>
+        <v>11.6935054219436</v>
       </c>
       <c r="D38" t="n">
-        <v>14.6760654995915</v>
+        <v>14.6649420370802</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1069,10 +1069,10 @@
         <v>9.90885343858005</v>
       </c>
       <c r="C39" t="n">
-        <v>7.90446531888114</v>
+        <v>7.91635295298322</v>
       </c>
       <c r="D39" t="n">
-        <v>11.913241558279</v>
+        <v>11.9013539241769</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1086,10 +1086,10 @@
         <v>11.6841997226376</v>
       </c>
       <c r="C40" t="n">
-        <v>6.36607486933736</v>
+        <v>6.39761562820731</v>
       </c>
       <c r="D40" t="n">
-        <v>17.0023245759378</v>
+        <v>16.9707838170679</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1103,10 +1103,10 @@
         <v>9.74985481675568</v>
       </c>
       <c r="C41" t="n">
-        <v>5.56772255926507</v>
+        <v>5.59252596812335</v>
       </c>
       <c r="D41" t="n">
-        <v>13.9319870742463</v>
+        <v>13.907183665388</v>
       </c>
       <c r="E41" t="s">
         <v>20</v>
@@ -1120,10 +1120,10 @@
         <v>3.93874094509974</v>
       </c>
       <c r="C42" t="n">
-        <v>0.775051204209055</v>
+        <v>0.793814429595695</v>
       </c>
       <c r="D42" t="n">
-        <v>7.10243068599043</v>
+        <v>7.08366746060379</v>
       </c>
       <c r="E42" t="s">
         <v>20</v>
@@ -1137,10 +1137,10 @@
         <v>10.9394437728559</v>
       </c>
       <c r="C43" t="n">
-        <v>4.52041229174589</v>
+        <v>4.55848231261023</v>
       </c>
       <c r="D43" t="n">
-        <v>17.3584752539658</v>
+        <v>17.3204052331015</v>
       </c>
       <c r="E43" t="s">
         <v>20</v>
@@ -1154,10 +1154,10 @@
         <v>7.13885917566529</v>
       </c>
       <c r="C44" t="n">
-        <v>2.37198630026651</v>
+        <v>2.40025769141923</v>
       </c>
       <c r="D44" t="n">
-        <v>11.9057320510641</v>
+        <v>11.8774606599113</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
@@ -1171,10 +1171,10 @@
         <v>15.5858339844804</v>
       </c>
       <c r="C45" t="n">
-        <v>9.78605459112035</v>
+        <v>9.82045194890923</v>
       </c>
       <c r="D45" t="n">
-        <v>21.3856133778404</v>
+        <v>21.3512160200516</v>
       </c>
       <c r="E45" t="s">
         <v>20</v>
@@ -1188,10 +1188,10 @@
         <v>10.691829733176</v>
       </c>
       <c r="C46" t="n">
-        <v>-4.12026019818549</v>
+        <v>-4.03241258840341</v>
       </c>
       <c r="D46" t="n">
-        <v>25.5039196645374</v>
+        <v>25.4160720547554</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -1202,13 +1202,13 @@
         <v>15</v>
       </c>
       <c r="B47" t="n">
-        <v>21.0612328683651</v>
+        <v>21.0589466812593</v>
       </c>
       <c r="C47" t="n">
-        <v>16.4932771864989</v>
+        <v>16.5187755491723</v>
       </c>
       <c r="D47" t="n">
-        <v>25.6291885502313</v>
+        <v>25.5991178133463</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
@@ -1222,10 +1222,10 @@
         <v>1.67275809272893</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.48595434039459</v>
+        <v>-1.46722063444731</v>
       </c>
       <c r="D48" t="n">
-        <v>4.83147052585245</v>
+        <v>4.81273681990517</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -1236,13 +1236,13 @@
         <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>14.6777749944208</v>
+        <v>14.669688875493</v>
       </c>
       <c r="C49" t="n">
-        <v>12.1277708749325</v>
+        <v>12.139684452525</v>
       </c>
       <c r="D49" t="n">
-        <v>17.2277791139091</v>
+        <v>17.1996932984609</v>
       </c>
       <c r="E49" t="s">
         <v>20</v>
@@ -1253,13 +1253,13 @@
         <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>11.2583271364775</v>
+        <v>11.2540732297097</v>
       </c>
       <c r="C50" t="n">
-        <v>9.83961394403664</v>
+        <v>9.84501867788117</v>
       </c>
       <c r="D50" t="n">
-        <v>12.6770403289184</v>
+        <v>12.6631277815382</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1273,10 +1273,10 @@
         <v>8.76093986725863</v>
       </c>
       <c r="C51" t="n">
-        <v>6.85436341748192</v>
+        <v>6.8656709496908</v>
       </c>
       <c r="D51" t="n">
-        <v>10.6675163170353</v>
+        <v>10.6562087848265</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1290,10 +1290,10 @@
         <v>9.24993280623377</v>
       </c>
       <c r="C52" t="n">
-        <v>4.57400989355467</v>
+        <v>4.60174187825822</v>
       </c>
       <c r="D52" t="n">
-        <v>13.9258557189129</v>
+        <v>13.8981237342093</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1307,10 +1307,10 @@
         <v>7.86488202532622</v>
       </c>
       <c r="C53" t="n">
-        <v>4.19143288541184</v>
+        <v>4.21321939414173</v>
       </c>
       <c r="D53" t="n">
-        <v>11.5383311652406</v>
+        <v>11.5165446565107</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1324,10 +1324,10 @@
         <v>8.55775014384478</v>
       </c>
       <c r="C54" t="n">
-        <v>3.97248743008026</v>
+        <v>3.99968172686712</v>
       </c>
       <c r="D54" t="n">
-        <v>13.1430128576093</v>
+        <v>13.1158185608224</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -1341,10 +1341,10 @@
         <v>8.50072620113385</v>
       </c>
       <c r="C55" t="n">
-        <v>2.61616146620983</v>
+        <v>2.65106166928492</v>
       </c>
       <c r="D55" t="n">
-        <v>14.3852909360579</v>
+        <v>14.3503907329828</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -1358,10 +1358,10 @@
         <v>5.60191660155518</v>
       </c>
       <c r="C56" t="n">
-        <v>0.911600039215881</v>
+        <v>0.939417389841765</v>
       </c>
       <c r="D56" t="n">
-        <v>10.2922331638945</v>
+        <v>10.2644158132686</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -1375,10 +1375,10 @@
         <v>11.0397520571469</v>
       </c>
       <c r="C57" t="n">
-        <v>5.93555938833978</v>
+        <v>5.96583135724489</v>
       </c>
       <c r="D57" t="n">
-        <v>16.1439447259541</v>
+        <v>16.1136727570489</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -1392,10 +1392,10 @@
         <v>15.2448949514248</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.727970020791135</v>
+        <v>-0.633238081160514</v>
       </c>
       <c r="D58" t="n">
-        <v>31.2177599236408</v>
+        <v>31.1230279840102</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -1406,13 +1406,13 @@
         <v>15</v>
       </c>
       <c r="B59" t="n">
-        <v>14.8662610927932</v>
+        <v>14.8639556001856</v>
       </c>
       <c r="C59" t="n">
-        <v>10.8788071609251</v>
+        <v>10.900451333537</v>
       </c>
       <c r="D59" t="n">
-        <v>18.8537150246613</v>
+        <v>18.8274598668342</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -1426,10 +1426,10 @@
         <v>3.73796249676129</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.0691124143552</v>
+        <v>-1.04060259278769</v>
       </c>
       <c r="D60" t="n">
-        <v>8.54503740787777</v>
+        <v>8.51652758631026</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1440,13 +1440,13 @@
         <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>13.3554697177631</v>
+        <v>13.3365916496503</v>
       </c>
       <c r="C61" t="n">
-        <v>10.8248126250742</v>
+        <v>10.8273751924703</v>
       </c>
       <c r="D61" t="n">
-        <v>15.886126810452</v>
+        <v>15.8458081068302</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
@@ -1457,13 +1457,13 @@
         <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>10.3833360601767</v>
+        <v>10.3768315010754</v>
       </c>
       <c r="C62" t="n">
-        <v>9.0047842578399</v>
+        <v>9.00794967212097</v>
       </c>
       <c r="D62" t="n">
-        <v>11.7618878625135</v>
+        <v>11.7457133300299</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1477,10 +1477,10 @@
         <v>8.86487499642793</v>
       </c>
       <c r="C63" t="n">
-        <v>6.94964853044363</v>
+        <v>6.96100736420765</v>
       </c>
       <c r="D63" t="n">
-        <v>10.7801014624122</v>
+        <v>10.7687426286482</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1494,10 +1494,10 @@
         <v>14.3091169462131</v>
       </c>
       <c r="C64" t="n">
-        <v>8.78190163002031</v>
+        <v>8.81468246355078</v>
       </c>
       <c r="D64" t="n">
-        <v>19.836332262406</v>
+        <v>19.8035514288755</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1511,10 +1511,10 @@
         <v>9.38872415268184</v>
       </c>
       <c r="C65" t="n">
-        <v>5.20333632114245</v>
+        <v>5.22815903817397</v>
       </c>
       <c r="D65" t="n">
-        <v>13.5741119842212</v>
+        <v>13.5492892671897</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -1528,10 +1528,10 @@
         <v>2.02182967088822</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.198045438007297</v>
+        <v>-0.184879792697629</v>
       </c>
       <c r="D66" t="n">
-        <v>4.24170477978374</v>
+        <v>4.22853913447407</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1545,10 +1545,10 @@
         <v>6.57996151211856</v>
       </c>
       <c r="C67" t="n">
-        <v>1.53100402493577</v>
+        <v>1.56094840477654</v>
       </c>
       <c r="D67" t="n">
-        <v>11.6289189993013</v>
+        <v>11.5989746194606</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -1562,10 +1562,10 @@
         <v>3.21014910982196</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.198569388556372</v>
+        <v>-0.178352945509501</v>
       </c>
       <c r="D68" t="n">
-        <v>6.61886760820029</v>
+        <v>6.59865116515342</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -1579,10 +1579,10 @@
         <v>15.2935563353551</v>
       </c>
       <c r="C69" t="n">
-        <v>9.13028640376156</v>
+        <v>9.1668395528743</v>
       </c>
       <c r="D69" t="n">
-        <v>21.4568262669486</v>
+        <v>21.4202731178359</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -1596,10 +1596,10 @@
         <v>12.5329561034987</v>
       </c>
       <c r="C70" t="n">
-        <v>-2.16451010331332</v>
+        <v>-2.07734230443387</v>
       </c>
       <c r="D70" t="n">
-        <v>27.2304223103107</v>
+        <v>27.1432545114313</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -1610,13 +1610,13 @@
         <v>15</v>
       </c>
       <c r="B71" t="n">
-        <v>13.6653991065051</v>
+        <v>13.6477580825677</v>
       </c>
       <c r="C71" t="n">
-        <v>9.46825919320998</v>
+        <v>9.47829354250712</v>
       </c>
       <c r="D71" t="n">
-        <v>17.8625390198003</v>
+        <v>17.8172226226282</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -1630,10 +1630,10 @@
         <v>1.45643548657437</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.32855274769188</v>
+        <v>-1.31203552690905</v>
       </c>
       <c r="D72" t="n">
-        <v>4.24142372084062</v>
+        <v>4.22490650005778</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -1644,13 +1644,13 @@
         <v>17</v>
       </c>
       <c r="B73" t="n">
-        <v>11.9099240476882</v>
+        <v>11.892280434608</v>
       </c>
       <c r="C73" t="n">
-        <v>9.51746934310002</v>
+        <v>9.52057994586647</v>
       </c>
       <c r="D73" t="n">
-        <v>14.3023787522763</v>
+        <v>14.2639809233495</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -1661,13 +1661,13 @@
         <v>5</v>
       </c>
       <c r="B74" t="n">
-        <v>11.49305996547</v>
+        <v>11.4867973306881</v>
       </c>
       <c r="C74" t="n">
-        <v>10.0740470428232</v>
+        <v>10.0776924518481</v>
       </c>
       <c r="D74" t="n">
-        <v>12.9120728881168</v>
+        <v>12.8959022095281</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
@@ -1681,10 +1681,10 @@
         <v>8.79406017112818</v>
       </c>
       <c r="C75" t="n">
-        <v>6.92445789318526</v>
+        <v>6.93554613880903</v>
       </c>
       <c r="D75" t="n">
-        <v>10.6636624490711</v>
+        <v>10.6525742034473</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
@@ -1698,10 +1698,10 @@
         <v>10.2675601230878</v>
       </c>
       <c r="C76" t="n">
-        <v>5.46935845020055</v>
+        <v>5.49781564632674</v>
       </c>
       <c r="D76" t="n">
-        <v>15.0657617959751</v>
+        <v>15.0373045998489</v>
       </c>
       <c r="E76" t="s">
         <v>23</v>
@@ -1715,10 +1715,10 @@
         <v>7.00292480962934</v>
       </c>
       <c r="C77" t="n">
-        <v>3.55422163308273</v>
+        <v>3.57467521743925</v>
       </c>
       <c r="D77" t="n">
-        <v>10.451627986176</v>
+        <v>10.4311744018194</v>
       </c>
       <c r="E77" t="s">
         <v>23</v>
@@ -1732,10 +1732,10 @@
         <v>3.4168788628126</v>
       </c>
       <c r="C78" t="n">
-        <v>0.272795573932424</v>
+        <v>0.291442517285037</v>
       </c>
       <c r="D78" t="n">
-        <v>6.56096215169277</v>
+        <v>6.54231520834016</v>
       </c>
       <c r="E78" t="s">
         <v>23</v>
@@ -1749,10 +1749,10 @@
         <v>8.43563925338355</v>
       </c>
       <c r="C79" t="n">
-        <v>2.44726932805827</v>
+        <v>2.48278517942485</v>
       </c>
       <c r="D79" t="n">
-        <v>14.4240091787088</v>
+        <v>14.3884933273422</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>
@@ -1766,10 +1766,10 @@
         <v>11.7998587388894</v>
       </c>
       <c r="C80" t="n">
-        <v>5.87343196096952</v>
+        <v>5.90858043963805</v>
       </c>
       <c r="D80" t="n">
-        <v>17.7262855168093</v>
+        <v>17.6911370381408</v>
       </c>
       <c r="E80" t="s">
         <v>23</v>
@@ -1783,10 +1783,10 @@
         <v>11.4667583470134</v>
       </c>
       <c r="C81" t="n">
-        <v>6.65673338930997</v>
+        <v>6.68526070702708</v>
       </c>
       <c r="D81" t="n">
-        <v>16.2767833047167</v>
+        <v>16.2482559869996</v>
       </c>
       <c r="E81" t="s">
         <v>23</v>
@@ -1800,10 +1800,10 @@
         <v>12.8195616790557</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.23804594949393</v>
+        <v>-2.14874222224584</v>
       </c>
       <c r="D82" t="n">
-        <v>27.8771693076053</v>
+        <v>27.7878655803572</v>
       </c>
       <c r="E82" t="s">
         <v>23</v>
@@ -1814,13 +1814,13 @@
         <v>15</v>
       </c>
       <c r="B83" t="n">
-        <v>15.6807715131403</v>
+        <v>15.6667838528888</v>
       </c>
       <c r="C83" t="n">
-        <v>11.3858919178219</v>
+        <v>11.3987964611961</v>
       </c>
       <c r="D83" t="n">
-        <v>19.9756511084588</v>
+        <v>19.9347712445815</v>
       </c>
       <c r="E83" t="s">
         <v>23</v>
@@ -1834,10 +1834,10 @@
         <v>4.51972940889372</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.577805620942146</v>
+        <v>-0.547573137192276</v>
       </c>
       <c r="D84" t="n">
-        <v>9.61726443872959</v>
+        <v>9.58703195497972</v>
       </c>
       <c r="E84" t="s">
         <v>23</v>
@@ -1848,13 +1848,13 @@
         <v>17</v>
       </c>
       <c r="B85" t="n">
-        <v>13.8195272995363</v>
+        <v>13.7977706883562</v>
       </c>
       <c r="C85" t="n">
-        <v>11.2945648374516</v>
+        <v>11.2950219042894</v>
       </c>
       <c r="D85" t="n">
-        <v>16.3444897616209</v>
+        <v>16.300519472423</v>
       </c>
       <c r="E85" t="s">
         <v>23</v>

--- a/xlsx/country_comparison/split_main_nb0.xlsx
+++ b/xlsx/country_comparison/split_main_nb0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -440,10 +437,10 @@
         <v>13.3193623891079</v>
       </c>
       <c r="C2" t="n">
-        <v>12.4024333816592</v>
+        <v>12.4022041971505</v>
       </c>
       <c r="D2" t="n">
-        <v>14.2362913965566</v>
+        <v>14.2365205810653</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -457,10 +454,10 @@
         <v>11.7887041526832</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4568787545218</v>
+        <v>10.4565458675185</v>
       </c>
       <c r="D3" t="n">
-        <v>13.1205295508446</v>
+        <v>13.1208624378478</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -474,10 +471,10 @@
         <v>15.857255790265</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3421846754442</v>
+        <v>12.3413060906902</v>
       </c>
       <c r="D4" t="n">
-        <v>19.3723269050858</v>
+        <v>19.3732054898397</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -491,10 +488,10 @@
         <v>12.1785702567457</v>
       </c>
       <c r="C5" t="n">
-        <v>9.32709677839388</v>
+        <v>9.32638405849647</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0300437350976</v>
+        <v>15.030756454995</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -508,10 +505,10 @@
         <v>10.1829248810549</v>
       </c>
       <c r="C6" t="n">
-        <v>6.96753761108763</v>
+        <v>6.96673393169079</v>
       </c>
       <c r="D6" t="n">
-        <v>13.3983121510222</v>
+        <v>13.399115830419</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -525,10 +522,10 @@
         <v>8.17000717202772</v>
       </c>
       <c r="C7" t="n">
-        <v>4.66208118698497</v>
+        <v>4.66120438814144</v>
       </c>
       <c r="D7" t="n">
-        <v>11.6779331570705</v>
+        <v>11.678809955914</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -542,10 +539,10 @@
         <v>8.79892939774599</v>
       </c>
       <c r="C8" t="n">
-        <v>5.59256483368605</v>
+        <v>5.59176340949589</v>
       </c>
       <c r="D8" t="n">
-        <v>12.0052939618059</v>
+        <v>12.0060953859961</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -559,10 +556,10 @@
         <v>12.2130961198949</v>
       </c>
       <c r="C9" t="n">
-        <v>8.98625587485825</v>
+        <v>8.98544933281399</v>
       </c>
       <c r="D9" t="n">
-        <v>15.4399363649316</v>
+        <v>15.4407429069759</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -576,10 +573,10 @@
         <v>15.9499241514169</v>
       </c>
       <c r="C10" t="n">
-        <v>6.48114033121892</v>
+        <v>6.47877362829001</v>
       </c>
       <c r="D10" t="n">
-        <v>25.4187079716149</v>
+        <v>25.4210746745438</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -593,10 +590,10 @@
         <v>16.9764659249636</v>
       </c>
       <c r="C11" t="n">
-        <v>14.3625021905328</v>
+        <v>14.3618488357046</v>
       </c>
       <c r="D11" t="n">
-        <v>19.5904296593944</v>
+        <v>19.5910830142226</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -607,13 +604,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>2.59148705771949</v>
+        <v>14.5287976377778</v>
       </c>
       <c r="C12" t="n">
-        <v>0.268300024509501</v>
+        <v>13.002415072477</v>
       </c>
       <c r="D12" t="n">
-        <v>4.91467409092947</v>
+        <v>16.0551802030786</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -621,203 +618,203 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.28551547481145</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.6815760826056</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.8894548670173</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="n">
-        <v>14.5287976377778</v>
-      </c>
-      <c r="C13" t="n">
-        <v>13.0027964933064</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16.0547987822492</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>5.28551547481145</v>
+        <v>3.4352800977907</v>
       </c>
       <c r="C14" t="n">
-        <v>4.68172699828632</v>
+        <v>2.68287623949083</v>
       </c>
       <c r="D14" t="n">
-        <v>5.88930395133658</v>
+        <v>4.18768395609058</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>3.4352800977907</v>
+        <v>4.73954546582556</v>
       </c>
       <c r="C15" t="n">
-        <v>2.68306425428489</v>
+        <v>2.69430219219548</v>
       </c>
       <c r="D15" t="n">
-        <v>4.18749594129651</v>
+        <v>6.78478873945564</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="n">
-        <v>4.73954546582556</v>
+        <v>3.26599692710462</v>
       </c>
       <c r="C16" t="n">
-        <v>2.69481326877843</v>
+        <v>1.71583546642415</v>
       </c>
       <c r="D16" t="n">
-        <v>6.78427766287268</v>
+        <v>4.8161583877851</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
-        <v>3.26599692710462</v>
+        <v>3.38714949751683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.71622282925407</v>
+        <v>1.46334590242817</v>
       </c>
       <c r="D17" t="n">
-        <v>4.81577102495517</v>
+        <v>5.31095309260549</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>3.38714949751683</v>
+        <v>2.99136318994881</v>
       </c>
       <c r="C18" t="n">
-        <v>1.46382663299961</v>
+        <v>0.809159738648647</v>
       </c>
       <c r="D18" t="n">
-        <v>5.31047236203405</v>
+        <v>5.17356664124897</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>2.99136318994881</v>
+        <v>2.46823781641377</v>
       </c>
       <c r="C19" t="n">
-        <v>0.809705039590391</v>
+        <v>0.711636963178553</v>
       </c>
       <c r="D19" t="n">
-        <v>5.17302134030723</v>
+        <v>4.22483866964898</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="n">
-        <v>2.46823781641377</v>
+        <v>3.05182836669389</v>
       </c>
       <c r="C20" t="n">
-        <v>0.712075912213744</v>
+        <v>1.3562880818117</v>
       </c>
       <c r="D20" t="n">
-        <v>4.22439972061379</v>
+        <v>4.74736865157608</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="n">
-        <v>3.05182836669389</v>
+        <v>5.29211302278441</v>
       </c>
       <c r="C21" t="n">
-        <v>1.35671177269789</v>
+        <v>-0.498999478947596</v>
       </c>
       <c r="D21" t="n">
-        <v>4.7469449606899</v>
+        <v>11.0832255245164</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>5.29211302278441</v>
+        <v>5.31794627982536</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.497552364060549</v>
+        <v>3.7551957599973</v>
       </c>
       <c r="D22" t="n">
-        <v>11.0817784096294</v>
+        <v>6.88069679965341</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>5.31794627982536</v>
+        <v>7.54256520205381</v>
       </c>
       <c r="C23" t="n">
-        <v>3.75558626865022</v>
+        <v>6.3987151160016</v>
       </c>
       <c r="D23" t="n">
-        <v>6.88030629100049</v>
+        <v>8.68641528810602</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>2.59887226014869</v>
+        <v>17.6477970206699</v>
       </c>
       <c r="C24" t="n">
-        <v>0.272465475975257</v>
+        <v>16.5976722280092</v>
       </c>
       <c r="D24" t="n">
-        <v>4.92527904432211</v>
+        <v>18.6979218133305</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -825,16 +822,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>7.54256520205381</v>
+        <v>15.4436439163565</v>
       </c>
       <c r="C25" t="n">
-        <v>6.39900094752147</v>
+        <v>13.9451699921668</v>
       </c>
       <c r="D25" t="n">
-        <v>8.68612945658616</v>
+        <v>16.9421178405461</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -842,169 +839,169 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>17.6477970206699</v>
+        <v>15.7002231767915</v>
       </c>
       <c r="C26" t="n">
-        <v>16.5979346389398</v>
+        <v>12.0422800380424</v>
       </c>
       <c r="D26" t="n">
-        <v>18.6976594023999</v>
+        <v>19.3581663155405</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B27" t="n">
-        <v>15.4436439163565</v>
+        <v>14.3639215124825</v>
       </c>
       <c r="C27" t="n">
-        <v>13.9455444390322</v>
+        <v>11.3110765694157</v>
       </c>
       <c r="D27" t="n">
-        <v>16.9417433936807</v>
+        <v>17.4167664555493</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B28" t="n">
-        <v>15.7002231767915</v>
+        <v>14.0819346615375</v>
       </c>
       <c r="C28" t="n">
-        <v>12.0431941048941</v>
+        <v>10.6239821064264</v>
       </c>
       <c r="D28" t="n">
-        <v>19.3572522486888</v>
+        <v>17.5398872166485</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29" t="n">
-        <v>14.3639215124825</v>
+        <v>15.6673643026802</v>
       </c>
       <c r="C29" t="n">
-        <v>11.3118394310184</v>
+        <v>10.9354184169958</v>
       </c>
       <c r="D29" t="n">
-        <v>17.4160035939465</v>
+        <v>20.3993101883645</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>14.0819346615375</v>
+        <v>13.0173032800483</v>
       </c>
       <c r="C30" t="n">
-        <v>10.6248461985365</v>
+        <v>9.09376803031935</v>
       </c>
       <c r="D30" t="n">
-        <v>17.5390231245385</v>
+        <v>16.9408385297772</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B31" t="n">
-        <v>15.6673643026802</v>
+        <v>19.3721815296871</v>
       </c>
       <c r="C31" t="n">
-        <v>10.936600861532</v>
+        <v>15.4779451217849</v>
       </c>
       <c r="D31" t="n">
-        <v>20.3981277438284</v>
+        <v>23.2664179375892</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B32" t="n">
-        <v>13.0173032800483</v>
+        <v>16.683472112902</v>
       </c>
       <c r="C32" t="n">
-        <v>9.0947484647813</v>
+        <v>6.17765618881113</v>
       </c>
       <c r="D32" t="n">
-        <v>16.9398580953153</v>
+        <v>27.189288036993</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>19.3721815296871</v>
+        <v>21.021707247996</v>
       </c>
       <c r="C33" t="n">
-        <v>15.4789182348919</v>
+        <v>18.1294131618644</v>
       </c>
       <c r="D33" t="n">
-        <v>23.2654448244822</v>
+        <v>23.9140013341276</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>16.683472112902</v>
+        <v>19.7266556784379</v>
       </c>
       <c r="C34" t="n">
-        <v>6.18028143959322</v>
+        <v>17.9357714780673</v>
       </c>
       <c r="D34" t="n">
-        <v>27.1866627862109</v>
+        <v>21.5175398788085</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>21.021707247996</v>
+        <v>13.1792237295119</v>
       </c>
       <c r="C35" t="n">
-        <v>18.1301359041404</v>
+        <v>11.693134069726</v>
       </c>
       <c r="D35" t="n">
-        <v>23.9132785918517</v>
+        <v>14.6653133892978</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -1012,16 +1009,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>8.13022396178497</v>
+        <v>9.90885343858005</v>
       </c>
       <c r="C36" t="n">
-        <v>3.98836805366789</v>
+        <v>7.91585493160849</v>
       </c>
       <c r="D36" t="n">
-        <v>12.2720798699021</v>
+        <v>11.9018519455516</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -1029,16 +1026,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B37" t="n">
-        <v>19.7266556784379</v>
+        <v>11.6841997226376</v>
       </c>
       <c r="C37" t="n">
-        <v>17.9362189940129</v>
+        <v>6.39629425744864</v>
       </c>
       <c r="D37" t="n">
-        <v>21.5170923628629</v>
+        <v>16.9721051878265</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -1046,152 +1043,152 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>13.1792237295119</v>
+        <v>9.74985481675568</v>
       </c>
       <c r="C38" t="n">
-        <v>11.6935054219436</v>
+        <v>5.59148685237741</v>
       </c>
       <c r="D38" t="n">
-        <v>14.6649420370802</v>
+        <v>13.9082227811339</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>9.90885343858005</v>
+        <v>3.93874094509974</v>
       </c>
       <c r="C39" t="n">
-        <v>7.91635295298322</v>
+        <v>0.793028361718682</v>
       </c>
       <c r="D39" t="n">
-        <v>11.9013539241769</v>
+        <v>7.0844535284808</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>11.6841997226376</v>
+        <v>10.9394437728559</v>
       </c>
       <c r="C40" t="n">
-        <v>6.39761562820731</v>
+        <v>4.55688740449278</v>
       </c>
       <c r="D40" t="n">
-        <v>16.9707838170679</v>
+        <v>17.322000141219</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>9.74985481675568</v>
+        <v>7.13885917566529</v>
       </c>
       <c r="C41" t="n">
-        <v>5.59252596812335</v>
+        <v>2.39907328778043</v>
       </c>
       <c r="D41" t="n">
-        <v>13.907183665388</v>
+        <v>11.8786450635501</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>3.93874094509974</v>
+        <v>15.5858339844804</v>
       </c>
       <c r="C42" t="n">
-        <v>0.793814429595695</v>
+        <v>9.8190109035956</v>
       </c>
       <c r="D42" t="n">
-        <v>7.08366746060379</v>
+        <v>21.3526570653652</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B43" t="n">
-        <v>10.9394437728559</v>
+        <v>10.691829733176</v>
       </c>
       <c r="C43" t="n">
-        <v>4.55848231261023</v>
+        <v>-4.03609288231339</v>
       </c>
       <c r="D43" t="n">
-        <v>17.3204052331015</v>
+        <v>25.4197523486653</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B44" t="n">
-        <v>7.13885917566529</v>
+        <v>21.0589466812593</v>
       </c>
       <c r="C44" t="n">
-        <v>2.40025769141923</v>
+        <v>16.5176407427896</v>
       </c>
       <c r="D44" t="n">
-        <v>11.8774606599113</v>
+        <v>25.600252619729</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B45" t="n">
-        <v>15.5858339844804</v>
+        <v>14.669688875493</v>
       </c>
       <c r="C45" t="n">
-        <v>9.82045194890923</v>
+        <v>12.139052083153</v>
       </c>
       <c r="D45" t="n">
-        <v>21.3512160200516</v>
+        <v>17.2003256678329</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>10.691829733176</v>
+        <v>11.2540732297097</v>
       </c>
       <c r="C46" t="n">
-        <v>-4.03241258840341</v>
+        <v>9.84466648761069</v>
       </c>
       <c r="D46" t="n">
-        <v>25.4160720547554</v>
+        <v>12.6634799718087</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -1199,16 +1196,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>21.0589466812593</v>
+        <v>8.76093986725863</v>
       </c>
       <c r="C47" t="n">
-        <v>16.5187755491723</v>
+        <v>6.86519723114537</v>
       </c>
       <c r="D47" t="n">
-        <v>25.5991178133463</v>
+        <v>10.6566825033719</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
@@ -1216,16 +1213,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B48" t="n">
-        <v>1.67275809272893</v>
+        <v>9.24993280623377</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.46722063444731</v>
+        <v>4.60058007255094</v>
       </c>
       <c r="D48" t="n">
-        <v>4.81273681990517</v>
+        <v>13.8992855399166</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -1233,16 +1230,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B49" t="n">
-        <v>14.669688875493</v>
+        <v>7.86488202532623</v>
       </c>
       <c r="C49" t="n">
-        <v>12.139684452525</v>
+        <v>4.21230666862083</v>
       </c>
       <c r="D49" t="n">
-        <v>17.1996932984609</v>
+        <v>11.5174573820316</v>
       </c>
       <c r="E49" t="s">
         <v>20</v>
@@ -1250,135 +1247,135 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B50" t="n">
-        <v>11.2540732297097</v>
+        <v>8.55775014384478</v>
       </c>
       <c r="C50" t="n">
-        <v>9.84501867788117</v>
+        <v>3.99854244709503</v>
       </c>
       <c r="D50" t="n">
-        <v>12.6631277815382</v>
+        <v>13.1169578405945</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B51" t="n">
-        <v>8.76093986725863</v>
+        <v>8.50072620113385</v>
       </c>
       <c r="C51" t="n">
-        <v>6.8656709496908</v>
+        <v>2.64959955773569</v>
       </c>
       <c r="D51" t="n">
-        <v>10.6562087848265</v>
+        <v>14.351852844532</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B52" t="n">
-        <v>9.24993280623377</v>
+        <v>5.60191660155518</v>
       </c>
       <c r="C52" t="n">
-        <v>4.60174187825822</v>
+        <v>0.938252007808557</v>
       </c>
       <c r="D52" t="n">
-        <v>13.8981237342093</v>
+        <v>10.2655811953018</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B53" t="n">
-        <v>7.86488202532622</v>
+        <v>11.0397520571469</v>
       </c>
       <c r="C53" t="n">
-        <v>4.21321939414173</v>
+        <v>5.96456314126177</v>
       </c>
       <c r="D53" t="n">
-        <v>11.5165446565107</v>
+        <v>16.1149409730321</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
-        <v>8.55775014384478</v>
+        <v>15.2448949514248</v>
       </c>
       <c r="C54" t="n">
-        <v>3.99968172686712</v>
+        <v>-0.637206787666794</v>
       </c>
       <c r="D54" t="n">
-        <v>13.1158185608224</v>
+        <v>31.1269966905164</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B55" t="n">
-        <v>8.50072620113385</v>
+        <v>14.8639556001856</v>
       </c>
       <c r="C55" t="n">
-        <v>2.65106166928492</v>
+        <v>10.8994606638444</v>
       </c>
       <c r="D55" t="n">
-        <v>14.3503907329828</v>
+        <v>18.8284505365269</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>5.60191660155518</v>
+        <v>13.3365916496503</v>
       </c>
       <c r="C56" t="n">
-        <v>0.939417389841765</v>
+        <v>10.8267480190074</v>
       </c>
       <c r="D56" t="n">
-        <v>10.2644158132686</v>
+        <v>15.8464352802932</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B57" t="n">
-        <v>11.0397520571469</v>
+        <v>10.3768315010754</v>
       </c>
       <c r="C57" t="n">
-        <v>5.96583135724489</v>
+        <v>9.00760752293946</v>
       </c>
       <c r="D57" t="n">
-        <v>16.1136727570489</v>
+        <v>11.7460554792114</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -1386,16 +1383,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>15.2448949514248</v>
+        <v>8.86487499642793</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.633238081160514</v>
+        <v>6.96053149643128</v>
       </c>
       <c r="D58" t="n">
-        <v>31.1230279840102</v>
+        <v>10.7692184964246</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -1403,16 +1400,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>14.8639556001856</v>
+        <v>14.3091169462131</v>
       </c>
       <c r="C59" t="n">
-        <v>10.900451333537</v>
+        <v>8.81330914101753</v>
       </c>
       <c r="D59" t="n">
-        <v>18.8274598668342</v>
+        <v>19.8049247514088</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -1420,16 +1417,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B60" t="n">
-        <v>3.73796249676129</v>
+        <v>9.38872415268184</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.04060259278769</v>
+        <v>5.22711911353007</v>
       </c>
       <c r="D60" t="n">
-        <v>8.51652758631026</v>
+        <v>13.5503291918336</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1437,16 +1434,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B61" t="n">
-        <v>13.3365916496503</v>
+        <v>2.02182967088822</v>
       </c>
       <c r="C61" t="n">
-        <v>10.8273751924703</v>
+        <v>-0.185431355163294</v>
       </c>
       <c r="D61" t="n">
-        <v>15.8458081068302</v>
+        <v>4.22909069693973</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
@@ -1454,118 +1451,118 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B62" t="n">
-        <v>10.3768315010754</v>
+        <v>6.57996151211856</v>
       </c>
       <c r="C62" t="n">
-        <v>9.00794967212097</v>
+        <v>1.5596939128326</v>
       </c>
       <c r="D62" t="n">
-        <v>11.7457133300299</v>
+        <v>11.6002291114045</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B63" t="n">
-        <v>8.86487499642793</v>
+        <v>3.21014910982196</v>
       </c>
       <c r="C63" t="n">
-        <v>6.96100736420765</v>
+        <v>-0.179199894588838</v>
       </c>
       <c r="D63" t="n">
-        <v>10.7687426286482</v>
+        <v>6.59949811423276</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B64" t="n">
-        <v>14.3091169462131</v>
+        <v>15.2935563353551</v>
       </c>
       <c r="C64" t="n">
-        <v>8.81468246355078</v>
+        <v>9.16530819268813</v>
       </c>
       <c r="D64" t="n">
-        <v>19.8035514288755</v>
+        <v>21.4218044780221</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B65" t="n">
-        <v>9.38872415268184</v>
+        <v>12.5329561034987</v>
       </c>
       <c r="C65" t="n">
-        <v>5.22815903817397</v>
+        <v>-2.08099411829834</v>
       </c>
       <c r="D65" t="n">
-        <v>13.5492892671897</v>
+        <v>27.1469063252958</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B66" t="n">
-        <v>2.02182967088822</v>
+        <v>13.6477580825677</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.184879792697629</v>
+        <v>9.47725139347021</v>
       </c>
       <c r="D66" t="n">
-        <v>4.22853913447407</v>
+        <v>17.8182647716651</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B67" t="n">
-        <v>6.57996151211856</v>
+        <v>11.892280434608</v>
       </c>
       <c r="C67" t="n">
-        <v>1.56094840477654</v>
+        <v>9.51998714423536</v>
       </c>
       <c r="D67" t="n">
-        <v>11.5989746194606</v>
+        <v>14.2645737249806</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B68" t="n">
-        <v>3.21014910982196</v>
+        <v>11.4867973306881</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.178352945509501</v>
+        <v>10.0773402489985</v>
       </c>
       <c r="D68" t="n">
-        <v>6.59865116515342</v>
+        <v>12.8962544123778</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -1573,16 +1570,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B69" t="n">
-        <v>15.2935563353551</v>
+        <v>8.79406017112818</v>
       </c>
       <c r="C69" t="n">
-        <v>9.1668395528743</v>
+        <v>6.93508160707114</v>
       </c>
       <c r="D69" t="n">
-        <v>21.4202731178359</v>
+        <v>10.6530387351852</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -1590,16 +1587,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>12.5329561034987</v>
+        <v>10.2675601230878</v>
       </c>
       <c r="C70" t="n">
-        <v>-2.07734230443387</v>
+        <v>5.49662345856138</v>
       </c>
       <c r="D70" t="n">
-        <v>27.1432545114313</v>
+        <v>15.0384967876143</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -1607,16 +1604,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B71" t="n">
-        <v>13.6477580825677</v>
+        <v>7.00292480962934</v>
       </c>
       <c r="C71" t="n">
-        <v>9.47829354250712</v>
+        <v>3.57381833354529</v>
       </c>
       <c r="D71" t="n">
-        <v>17.8172226226282</v>
+        <v>10.4320312857134</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -1624,16 +1621,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B72" t="n">
-        <v>1.45643548657437</v>
+        <v>3.4168788628126</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.31203552690905</v>
+        <v>0.290661320935692</v>
       </c>
       <c r="D72" t="n">
-        <v>4.22490650005778</v>
+        <v>6.54309640468951</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -1641,16 +1638,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>11.892280434608</v>
+        <v>8.43563925338355</v>
       </c>
       <c r="C73" t="n">
-        <v>9.52057994586647</v>
+        <v>2.48129727586303</v>
       </c>
       <c r="D73" t="n">
-        <v>14.2639809233495</v>
+        <v>14.3899812309041</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -1658,206 +1655,87 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B74" t="n">
-        <v>11.4867973306881</v>
+        <v>11.7998587388894</v>
       </c>
       <c r="C74" t="n">
-        <v>10.0776924518481</v>
+        <v>5.90710792681374</v>
       </c>
       <c r="D74" t="n">
-        <v>12.8959022095281</v>
+        <v>17.6926095509651</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B75" t="n">
-        <v>8.79406017112818</v>
+        <v>11.4667583470134</v>
       </c>
       <c r="C75" t="n">
-        <v>6.93554613880903</v>
+        <v>6.68406558158288</v>
       </c>
       <c r="D75" t="n">
-        <v>10.6525742034473</v>
+        <v>16.2494511124438</v>
       </c>
       <c r="E75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B76" t="n">
-        <v>10.2675601230878</v>
+        <v>12.8195616790557</v>
       </c>
       <c r="C76" t="n">
-        <v>5.49781564632674</v>
+        <v>-2.15248351884281</v>
       </c>
       <c r="D76" t="n">
-        <v>15.0373045998489</v>
+        <v>27.7916068769541</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B77" t="n">
-        <v>7.00292480962934</v>
+        <v>15.6667838528888</v>
       </c>
       <c r="C77" t="n">
-        <v>3.57467521743925</v>
+        <v>11.3977296865762</v>
       </c>
       <c r="D77" t="n">
-        <v>10.4311744018194</v>
+        <v>19.9358380192014</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B78" t="n">
-        <v>3.4168788628126</v>
+        <v>13.7977706883562</v>
       </c>
       <c r="C78" t="n">
-        <v>0.291442517285037</v>
+        <v>11.294396347408</v>
       </c>
       <c r="D78" t="n">
-        <v>6.54231520834016</v>
+        <v>16.3011450293044</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" t="n">
-        <v>8.43563925338355</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2.48278517942485</v>
-      </c>
-      <c r="D79" t="n">
-        <v>14.3884933273422</v>
-      </c>
-      <c r="E79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" t="n">
-        <v>11.7998587388894</v>
-      </c>
-      <c r="C80" t="n">
-        <v>5.90858043963805</v>
-      </c>
-      <c r="D80" t="n">
-        <v>17.6911370381408</v>
-      </c>
-      <c r="E80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="n">
-        <v>11.4667583470134</v>
-      </c>
-      <c r="C81" t="n">
-        <v>6.68526070702708</v>
-      </c>
-      <c r="D81" t="n">
-        <v>16.2482559869996</v>
-      </c>
-      <c r="E81" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" t="n">
-        <v>12.8195616790557</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-2.14874222224584</v>
-      </c>
-      <c r="D82" t="n">
-        <v>27.7878655803572</v>
-      </c>
-      <c r="E82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" t="n">
-        <v>15.6667838528888</v>
-      </c>
-      <c r="C83" t="n">
-        <v>11.3987964611961</v>
-      </c>
-      <c r="D83" t="n">
-        <v>19.9347712445815</v>
-      </c>
-      <c r="E83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" t="n">
-        <v>4.51972940889372</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-0.547573137192276</v>
-      </c>
-      <c r="D84" t="n">
-        <v>9.58703195497972</v>
-      </c>
-      <c r="E84" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" t="n">
-        <v>13.7977706883562</v>
-      </c>
-      <c r="C85" t="n">
-        <v>11.2950219042894</v>
-      </c>
-      <c r="D85" t="n">
-        <v>16.300519472423</v>
-      </c>
-      <c r="E85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_main_nb0.xlsx
+++ b/xlsx/country_comparison/split_main_nb0.xlsx
@@ -68,7 +68,9 @@
     <t xml:space="preserve">Domestic: Education and Healthcare</t>
   </si>
   <si>
-    <t xml:space="preserve">Share allocated to Global spending options&lt;br&gt;when 5 out of 13 options are randomly selected&lt;br&gt;(4 out of 13 being of Global nature)</t>
+    <t xml:space="preserve">Share allocated to Global spending options 
+when 5 out of 13 options are randomly selected 
+(4 out of 13 being of Global nature)</t>
   </si>
   <si>
     <t xml:space="preserve">Global: Education and Healthcare in low-income countries</t>

--- a/xlsx/country_comparison/split_main_nb0.xlsx
+++ b/xlsx/country_comparison/split_main_nb0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -62,15 +62,16 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Domestic: Education and Healthcare</t>
   </si>
   <si>
-    <t xml:space="preserve">Share allocated to Global spending options 
-when 5 out of 13 options are randomly selected 
-(4 out of 13 being of Global nature)</t>
+    <t xml:space="preserve">Share allocated to Global spending options&lt;br&gt;when 5 out of 13 options are randomly selected&lt;br&gt;(4 out of 13 being of Global nature)</t>
   </si>
   <si>
     <t xml:space="preserve">Global: Education and Healthcare in low-income countries</t>
@@ -606,13 +607,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5287976377778</v>
+        <v>2.59148705771949</v>
       </c>
       <c r="C12" t="n">
-        <v>13.002415072477</v>
+        <v>0.267719348716253</v>
       </c>
       <c r="D12" t="n">
-        <v>16.0551802030786</v>
+        <v>4.91525476672272</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -620,203 +621,203 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>5.28551547481145</v>
+        <v>14.5287976377778</v>
       </c>
       <c r="C13" t="n">
-        <v>4.6815760826056</v>
+        <v>13.002415072477</v>
       </c>
       <c r="D13" t="n">
-        <v>5.8894548670173</v>
+        <v>16.0551802030786</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3.4352800977907</v>
+        <v>5.28551547481145</v>
       </c>
       <c r="C14" t="n">
-        <v>2.68287623949083</v>
+        <v>4.6815760826056</v>
       </c>
       <c r="D14" t="n">
-        <v>4.18768395609058</v>
+        <v>5.8894548670173</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>4.73954546582556</v>
+        <v>3.4352800977907</v>
       </c>
       <c r="C15" t="n">
-        <v>2.69430219219548</v>
+        <v>2.68287623949083</v>
       </c>
       <c r="D15" t="n">
-        <v>6.78478873945564</v>
+        <v>4.18768395609058</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>3.26599692710462</v>
+        <v>4.73954546582556</v>
       </c>
       <c r="C16" t="n">
-        <v>1.71583546642415</v>
+        <v>2.69430219219548</v>
       </c>
       <c r="D16" t="n">
-        <v>4.8161583877851</v>
+        <v>6.78478873945564</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>3.38714949751683</v>
+        <v>3.26599692710462</v>
       </c>
       <c r="C17" t="n">
-        <v>1.46334590242817</v>
+        <v>1.71583546642415</v>
       </c>
       <c r="D17" t="n">
-        <v>5.31095309260549</v>
+        <v>4.8161583877851</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>2.99136318994881</v>
+        <v>3.38714949751683</v>
       </c>
       <c r="C18" t="n">
-        <v>0.809159738648647</v>
+        <v>1.46334590242817</v>
       </c>
       <c r="D18" t="n">
-        <v>5.17356664124897</v>
+        <v>5.31095309260549</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>2.46823781641377</v>
+        <v>2.99136318994881</v>
       </c>
       <c r="C19" t="n">
-        <v>0.711636963178553</v>
+        <v>0.809159738648647</v>
       </c>
       <c r="D19" t="n">
-        <v>4.22483866964898</v>
+        <v>5.17356664124897</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>3.05182836669389</v>
+        <v>2.46823781641377</v>
       </c>
       <c r="C20" t="n">
-        <v>1.3562880818117</v>
+        <v>0.711636963178553</v>
       </c>
       <c r="D20" t="n">
-        <v>4.74736865157608</v>
+        <v>4.22483866964898</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>5.29211302278441</v>
+        <v>3.05182836669389</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.498999478947596</v>
+        <v>1.3562880818117</v>
       </c>
       <c r="D21" t="n">
-        <v>11.0832255245164</v>
+        <v>4.74736865157608</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>5.31794627982536</v>
+        <v>5.29211302278441</v>
       </c>
       <c r="C22" t="n">
-        <v>3.7551957599973</v>
+        <v>-0.498999478947596</v>
       </c>
       <c r="D22" t="n">
-        <v>6.88069679965341</v>
+        <v>11.0832255245164</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>7.54256520205381</v>
+        <v>5.31794627982536</v>
       </c>
       <c r="C23" t="n">
-        <v>6.3987151160016</v>
+        <v>3.7551957599973</v>
       </c>
       <c r="D23" t="n">
-        <v>8.68641528810602</v>
+        <v>6.88069679965341</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>17.6477970206699</v>
+        <v>2.59887226014869</v>
       </c>
       <c r="C24" t="n">
-        <v>16.5976722280092</v>
+        <v>0.271883995411915</v>
       </c>
       <c r="D24" t="n">
-        <v>18.6979218133305</v>
+        <v>4.92586052488546</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -824,16 +825,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>15.4436439163565</v>
+        <v>7.54256520205381</v>
       </c>
       <c r="C25" t="n">
-        <v>13.9451699921668</v>
+        <v>6.3987151160016</v>
       </c>
       <c r="D25" t="n">
-        <v>16.9421178405461</v>
+        <v>8.68641528810602</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -841,169 +842,169 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>15.7002231767915</v>
+        <v>17.6477970206699</v>
       </c>
       <c r="C26" t="n">
-        <v>12.0422800380424</v>
+        <v>16.5976722280092</v>
       </c>
       <c r="D26" t="n">
-        <v>19.3581663155405</v>
+        <v>18.6979218133305</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>14.3639215124825</v>
+        <v>15.4436439163565</v>
       </c>
       <c r="C27" t="n">
-        <v>11.3110765694157</v>
+        <v>13.9451699921668</v>
       </c>
       <c r="D27" t="n">
-        <v>17.4167664555493</v>
+        <v>16.9421178405461</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>14.0819346615375</v>
+        <v>15.7002231767915</v>
       </c>
       <c r="C28" t="n">
-        <v>10.6239821064264</v>
+        <v>12.0422800380424</v>
       </c>
       <c r="D28" t="n">
-        <v>17.5398872166485</v>
+        <v>19.3581663155405</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>15.6673643026802</v>
+        <v>14.3639215124825</v>
       </c>
       <c r="C29" t="n">
-        <v>10.9354184169958</v>
+        <v>11.3110765694157</v>
       </c>
       <c r="D29" t="n">
-        <v>20.3993101883645</v>
+        <v>17.4167664555493</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>13.0173032800483</v>
+        <v>14.0819346615375</v>
       </c>
       <c r="C30" t="n">
-        <v>9.09376803031935</v>
+        <v>10.6239821064264</v>
       </c>
       <c r="D30" t="n">
-        <v>16.9408385297772</v>
+        <v>17.5398872166485</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>19.3721815296871</v>
+        <v>15.6673643026802</v>
       </c>
       <c r="C31" t="n">
-        <v>15.4779451217849</v>
+        <v>10.9354184169958</v>
       </c>
       <c r="D31" t="n">
-        <v>23.2664179375892</v>
+        <v>20.3993101883645</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>16.683472112902</v>
+        <v>13.0173032800483</v>
       </c>
       <c r="C32" t="n">
-        <v>6.17765618881113</v>
+        <v>9.09376803031935</v>
       </c>
       <c r="D32" t="n">
-        <v>27.189288036993</v>
+        <v>16.9408385297772</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
-        <v>21.021707247996</v>
+        <v>19.3721815296871</v>
       </c>
       <c r="C33" t="n">
-        <v>18.1294131618644</v>
+        <v>15.4779451217849</v>
       </c>
       <c r="D33" t="n">
-        <v>23.9140013341276</v>
+        <v>23.2664179375892</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
-        <v>19.7266556784379</v>
+        <v>16.683472112902</v>
       </c>
       <c r="C34" t="n">
-        <v>17.9357714780673</v>
+        <v>6.17765618881113</v>
       </c>
       <c r="D34" t="n">
-        <v>21.5175398788085</v>
+        <v>27.189288036993</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>13.1792237295119</v>
+        <v>21.021707247996</v>
       </c>
       <c r="C35" t="n">
-        <v>11.693134069726</v>
+        <v>18.1294131618644</v>
       </c>
       <c r="D35" t="n">
-        <v>14.6653133892978</v>
+        <v>23.9140013341276</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -1011,16 +1012,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>9.90885343858005</v>
+        <v>8.13022396178498</v>
       </c>
       <c r="C36" t="n">
-        <v>7.91585493160849</v>
+        <v>3.98733280535142</v>
       </c>
       <c r="D36" t="n">
-        <v>11.9018519455516</v>
+        <v>12.2731151182185</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -1028,16 +1029,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>11.6841997226376</v>
+        <v>19.7266556784379</v>
       </c>
       <c r="C37" t="n">
-        <v>6.39629425744864</v>
+        <v>17.9357714780673</v>
       </c>
       <c r="D37" t="n">
-        <v>16.9721051878265</v>
+        <v>21.5175398788085</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -1045,152 +1046,152 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>9.74985481675568</v>
+        <v>13.1792237295119</v>
       </c>
       <c r="C38" t="n">
-        <v>5.59148685237741</v>
+        <v>11.693134069726</v>
       </c>
       <c r="D38" t="n">
-        <v>13.9082227811339</v>
+        <v>14.6653133892978</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>3.93874094509974</v>
+        <v>9.90885343858005</v>
       </c>
       <c r="C39" t="n">
-        <v>0.793028361718682</v>
+        <v>7.91585493160849</v>
       </c>
       <c r="D39" t="n">
-        <v>7.0844535284808</v>
+        <v>11.9018519455516</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40" t="n">
-        <v>10.9394437728559</v>
+        <v>11.6841997226376</v>
       </c>
       <c r="C40" t="n">
-        <v>4.55688740449278</v>
+        <v>6.39629425744864</v>
       </c>
       <c r="D40" t="n">
-        <v>17.322000141219</v>
+        <v>16.9721051878265</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41" t="n">
-        <v>7.13885917566529</v>
+        <v>9.74985481675568</v>
       </c>
       <c r="C41" t="n">
-        <v>2.39907328778043</v>
+        <v>5.59148685237741</v>
       </c>
       <c r="D41" t="n">
-        <v>11.8786450635501</v>
+        <v>13.9082227811339</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B42" t="n">
-        <v>15.5858339844804</v>
+        <v>3.93874094509974</v>
       </c>
       <c r="C42" t="n">
-        <v>9.8190109035956</v>
+        <v>0.793028361718682</v>
       </c>
       <c r="D42" t="n">
-        <v>21.3526570653652</v>
+        <v>7.0844535284808</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B43" t="n">
-        <v>10.691829733176</v>
+        <v>10.9394437728559</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.03609288231339</v>
+        <v>4.55688740449278</v>
       </c>
       <c r="D43" t="n">
-        <v>25.4197523486653</v>
+        <v>17.322000141219</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B44" t="n">
-        <v>21.0589466812593</v>
+        <v>7.13885917566529</v>
       </c>
       <c r="C44" t="n">
-        <v>16.5176407427896</v>
+        <v>2.39907328778043</v>
       </c>
       <c r="D44" t="n">
-        <v>25.600252619729</v>
+        <v>11.8786450635501</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B45" t="n">
-        <v>14.669688875493</v>
+        <v>15.5858339844804</v>
       </c>
       <c r="C45" t="n">
-        <v>12.139052083153</v>
+        <v>9.8190109035956</v>
       </c>
       <c r="D45" t="n">
-        <v>17.2003256678329</v>
+        <v>21.3526570653652</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>11.2540732297097</v>
+        <v>10.691829733176</v>
       </c>
       <c r="C46" t="n">
-        <v>9.84466648761069</v>
+        <v>-4.03609288231339</v>
       </c>
       <c r="D46" t="n">
-        <v>12.6634799718087</v>
+        <v>25.4197523486653</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -1198,16 +1199,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B47" t="n">
-        <v>8.76093986725863</v>
+        <v>21.0589466812593</v>
       </c>
       <c r="C47" t="n">
-        <v>6.86519723114537</v>
+        <v>16.5176407427896</v>
       </c>
       <c r="D47" t="n">
-        <v>10.6566825033719</v>
+        <v>25.600252619729</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
@@ -1215,16 +1216,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>9.24993280623377</v>
+        <v>1.67275809272893</v>
       </c>
       <c r="C48" t="n">
-        <v>4.60058007255094</v>
+        <v>-1.46800546563487</v>
       </c>
       <c r="D48" t="n">
-        <v>13.8992855399166</v>
+        <v>4.81352165109272</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -1232,16 +1233,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>7.86488202532623</v>
+        <v>14.669688875493</v>
       </c>
       <c r="C49" t="n">
-        <v>4.21230666862083</v>
+        <v>12.139052083153</v>
       </c>
       <c r="D49" t="n">
-        <v>11.5174573820316</v>
+        <v>17.2003256678329</v>
       </c>
       <c r="E49" t="s">
         <v>20</v>
@@ -1249,135 +1250,135 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>8.55775014384478</v>
+        <v>11.2540732297097</v>
       </c>
       <c r="C50" t="n">
-        <v>3.99854244709503</v>
+        <v>9.84466648761069</v>
       </c>
       <c r="D50" t="n">
-        <v>13.1169578405945</v>
+        <v>12.6634799718087</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>8.50072620113385</v>
+        <v>8.76093986725863</v>
       </c>
       <c r="C51" t="n">
-        <v>2.64959955773569</v>
+        <v>6.86519723114537</v>
       </c>
       <c r="D51" t="n">
-        <v>14.351852844532</v>
+        <v>10.6566825033719</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>5.60191660155518</v>
+        <v>9.24993280623377</v>
       </c>
       <c r="C52" t="n">
-        <v>0.938252007808557</v>
+        <v>4.60058007255094</v>
       </c>
       <c r="D52" t="n">
-        <v>10.2655811953018</v>
+        <v>13.8992855399166</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B53" t="n">
-        <v>11.0397520571469</v>
+        <v>7.86488202532623</v>
       </c>
       <c r="C53" t="n">
-        <v>5.96456314126177</v>
+        <v>4.21230666862083</v>
       </c>
       <c r="D53" t="n">
-        <v>16.1149409730321</v>
+        <v>11.5174573820316</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>15.2448949514248</v>
+        <v>8.55775014384478</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.637206787666794</v>
+        <v>3.99854244709503</v>
       </c>
       <c r="D54" t="n">
-        <v>31.1269966905164</v>
+        <v>13.1169578405945</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B55" t="n">
-        <v>14.8639556001856</v>
+        <v>8.50072620113385</v>
       </c>
       <c r="C55" t="n">
-        <v>10.8994606638444</v>
+        <v>2.64959955773569</v>
       </c>
       <c r="D55" t="n">
-        <v>18.8284505365269</v>
+        <v>14.351852844532</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B56" t="n">
-        <v>13.3365916496503</v>
+        <v>5.60191660155518</v>
       </c>
       <c r="C56" t="n">
-        <v>10.8267480190074</v>
+        <v>0.938252007808557</v>
       </c>
       <c r="D56" t="n">
-        <v>15.8464352802932</v>
+        <v>10.2655811953018</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B57" t="n">
-        <v>10.3768315010754</v>
+        <v>11.0397520571469</v>
       </c>
       <c r="C57" t="n">
-        <v>9.00760752293946</v>
+        <v>5.96456314126177</v>
       </c>
       <c r="D57" t="n">
-        <v>11.7460554792114</v>
+        <v>16.1149409730321</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -1385,16 +1386,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B58" t="n">
-        <v>8.86487499642793</v>
+        <v>15.2448949514248</v>
       </c>
       <c r="C58" t="n">
-        <v>6.96053149643128</v>
+        <v>-0.637206787666794</v>
       </c>
       <c r="D58" t="n">
-        <v>10.7692184964246</v>
+        <v>31.1269966905164</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -1402,16 +1403,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B59" t="n">
-        <v>14.3091169462131</v>
+        <v>14.8639556001856</v>
       </c>
       <c r="C59" t="n">
-        <v>8.81330914101753</v>
+        <v>10.8994606638444</v>
       </c>
       <c r="D59" t="n">
-        <v>19.8049247514088</v>
+        <v>18.8284505365269</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -1419,16 +1420,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>9.38872415268184</v>
+        <v>3.73796249676128</v>
       </c>
       <c r="C60" t="n">
-        <v>5.22711911353007</v>
+        <v>-1.04179698524697</v>
       </c>
       <c r="D60" t="n">
-        <v>13.5503291918336</v>
+        <v>8.51772197876954</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1436,16 +1437,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>2.02182967088822</v>
+        <v>13.3365916496503</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.185431355163294</v>
+        <v>10.8267480190074</v>
       </c>
       <c r="D61" t="n">
-        <v>4.22909069693973</v>
+        <v>15.8464352802932</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
@@ -1453,118 +1454,118 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>6.57996151211856</v>
+        <v>10.3768315010754</v>
       </c>
       <c r="C62" t="n">
-        <v>1.5596939128326</v>
+        <v>9.00760752293946</v>
       </c>
       <c r="D62" t="n">
-        <v>11.6002291114045</v>
+        <v>11.7460554792114</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>3.21014910982196</v>
+        <v>8.86487499642793</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.179199894588838</v>
+        <v>6.96053149643128</v>
       </c>
       <c r="D63" t="n">
-        <v>6.59949811423276</v>
+        <v>10.7692184964246</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>15.2935563353551</v>
+        <v>14.3091169462131</v>
       </c>
       <c r="C64" t="n">
-        <v>9.16530819268813</v>
+        <v>8.81330914101753</v>
       </c>
       <c r="D64" t="n">
-        <v>21.4218044780221</v>
+        <v>19.8049247514088</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B65" t="n">
-        <v>12.5329561034987</v>
+        <v>9.38872415268184</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.08099411829834</v>
+        <v>5.22711911353007</v>
       </c>
       <c r="D65" t="n">
-        <v>27.1469063252958</v>
+        <v>13.5503291918336</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B66" t="n">
-        <v>13.6477580825677</v>
+        <v>2.02182967088822</v>
       </c>
       <c r="C66" t="n">
-        <v>9.47725139347021</v>
+        <v>-0.185431355163294</v>
       </c>
       <c r="D66" t="n">
-        <v>17.8182647716651</v>
+        <v>4.22909069693973</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B67" t="n">
-        <v>11.892280434608</v>
+        <v>6.57996151211856</v>
       </c>
       <c r="C67" t="n">
-        <v>9.51998714423536</v>
+        <v>1.5596939128326</v>
       </c>
       <c r="D67" t="n">
-        <v>14.2645737249806</v>
+        <v>11.6002291114045</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B68" t="n">
-        <v>11.4867973306881</v>
+        <v>3.21014910982196</v>
       </c>
       <c r="C68" t="n">
-        <v>10.0773402489985</v>
+        <v>-0.179199894588838</v>
       </c>
       <c r="D68" t="n">
-        <v>12.8962544123778</v>
+        <v>6.59949811423276</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -1572,16 +1573,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B69" t="n">
-        <v>8.79406017112818</v>
+        <v>15.2935563353551</v>
       </c>
       <c r="C69" t="n">
-        <v>6.93508160707114</v>
+        <v>9.16530819268813</v>
       </c>
       <c r="D69" t="n">
-        <v>10.6530387351852</v>
+        <v>21.4218044780221</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -1589,16 +1590,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B70" t="n">
-        <v>10.2675601230878</v>
+        <v>12.5329561034987</v>
       </c>
       <c r="C70" t="n">
-        <v>5.49662345856138</v>
+        <v>-2.08099411829834</v>
       </c>
       <c r="D70" t="n">
-        <v>15.0384967876143</v>
+        <v>27.1469063252958</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -1606,16 +1607,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B71" t="n">
-        <v>7.00292480962934</v>
+        <v>13.6477580825677</v>
       </c>
       <c r="C71" t="n">
-        <v>3.57381833354529</v>
+        <v>9.47725139347021</v>
       </c>
       <c r="D71" t="n">
-        <v>10.4320312857134</v>
+        <v>17.8182647716651</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -1623,16 +1624,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>3.4168788628126</v>
+        <v>1.45643548657437</v>
       </c>
       <c r="C72" t="n">
-        <v>0.290661320935692</v>
+        <v>-1.31272750051206</v>
       </c>
       <c r="D72" t="n">
-        <v>6.54309640468951</v>
+        <v>4.2255984736608</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -1640,16 +1641,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B73" t="n">
-        <v>8.43563925338355</v>
+        <v>11.892280434608</v>
       </c>
       <c r="C73" t="n">
-        <v>2.48129727586303</v>
+        <v>9.51998714423536</v>
       </c>
       <c r="D73" t="n">
-        <v>14.3899812309041</v>
+        <v>14.2645737249806</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -1657,87 +1658,206 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B74" t="n">
-        <v>11.7998587388894</v>
+        <v>11.4867973306881</v>
       </c>
       <c r="C74" t="n">
-        <v>5.90710792681374</v>
+        <v>10.0773402489985</v>
       </c>
       <c r="D74" t="n">
-        <v>17.6926095509651</v>
+        <v>12.8962544123778</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B75" t="n">
-        <v>11.4667583470134</v>
+        <v>8.79406017112818</v>
       </c>
       <c r="C75" t="n">
-        <v>6.68406558158288</v>
+        <v>6.93508160707114</v>
       </c>
       <c r="D75" t="n">
-        <v>16.2494511124438</v>
+        <v>10.6530387351852</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B76" t="n">
-        <v>12.8195616790557</v>
+        <v>10.2675601230878</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.15248351884281</v>
+        <v>5.49662345856138</v>
       </c>
       <c r="D76" t="n">
-        <v>27.7916068769541</v>
+        <v>15.0384967876143</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B77" t="n">
-        <v>15.6667838528888</v>
+        <v>7.00292480962934</v>
       </c>
       <c r="C77" t="n">
-        <v>11.3977296865762</v>
+        <v>3.57381833354529</v>
       </c>
       <c r="D77" t="n">
-        <v>19.9358380192014</v>
+        <v>10.4320312857134</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.4168788628126</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.290661320935692</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6.54309640468951</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8.43563925338355</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.48129727586303</v>
+      </c>
+      <c r="D79" t="n">
+        <v>14.3899812309041</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11.7998587388894</v>
+      </c>
+      <c r="C80" t="n">
+        <v>5.90710792681374</v>
+      </c>
+      <c r="D80" t="n">
+        <v>17.6926095509651</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11.4667583470134</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6.68406558158288</v>
+      </c>
+      <c r="D81" t="n">
+        <v>16.2494511124438</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="n">
+        <v>12.8195616790557</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-2.15248351884281</v>
+      </c>
+      <c r="D82" t="n">
+        <v>27.7916068769541</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="n">
+        <v>15.6667838528888</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.3977296865762</v>
+      </c>
+      <c r="D83" t="n">
+        <v>19.9358380192014</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
         <v>16</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B84" t="n">
+        <v>4.51972940889372</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.548839698981543</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9.58829851676899</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="n">
         <v>13.7977706883562</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C85" t="n">
         <v>11.294396347408</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D85" t="n">
         <v>16.3011450293044</v>
       </c>
-      <c r="E78" t="s">
-        <v>22</v>
+      <c r="E85" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
